--- a/portfolio/posts/_data/Pike_Chain_WQ_Data.xlsx
+++ b/portfolio/posts/_data/Pike_Chain_WQ_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="2" r:id="rId1"/>
@@ -18,12 +18,15 @@
     <sheet name="Comments" sheetId="5" r:id="rId4"/>
     <sheet name="Observer" sheetId="1" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DO!$A$1:$I$772</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9089" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9098" uniqueCount="477">
   <si>
     <t>Buskey Bay</t>
   </si>
@@ -1431,6 +1434,30 @@
   <si>
     <t>Updated all data from WiDNR website through 2022</t>
   </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Temp originally entered as 488.1</t>
+  </si>
+  <si>
+    <t>Temp originally entered as 0.07</t>
+  </si>
+  <si>
+    <t>Temp originally entered as 588.7</t>
+  </si>
+  <si>
+    <t>Temp originally entered as 49.88</t>
+  </si>
+  <si>
+    <t>DO originally entered as 88.97'</t>
+  </si>
+  <si>
+    <t>Is this Temp correct?</t>
+  </si>
+  <si>
+    <t>Temp was originally 49.3</t>
+  </si>
 </sst>
 </file>
 
@@ -23446,11 +23473,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H772"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I772"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A671" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E684" sqref="E684"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23465,7 +23493,7 @@
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>73</v>
       </c>
@@ -23490,8 +23518,11 @@
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -23511,7 +23542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -23531,7 +23562,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -23551,7 +23582,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -23571,7 +23602,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -23591,7 +23622,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -23611,7 +23642,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -23631,7 +23662,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -23651,7 +23682,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -23677,7 +23708,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -23703,7 +23734,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -23729,7 +23760,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -23755,7 +23786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -23781,7 +23812,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -23807,7 +23838,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -28265,7 +28296,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>79</v>
       </c>
@@ -28291,7 +28322,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>79</v>
       </c>
@@ -28317,7 +28348,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>79</v>
       </c>
@@ -28343,7 +28374,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>79</v>
       </c>
@@ -28369,7 +28400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>79</v>
       </c>
@@ -28395,7 +28426,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>79</v>
       </c>
@@ -28421,7 +28452,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>79</v>
       </c>
@@ -28447,7 +28478,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>79</v>
       </c>
@@ -28473,7 +28504,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>79</v>
       </c>
@@ -28499,7 +28530,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>79</v>
       </c>
@@ -28525,7 +28556,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>79</v>
       </c>
@@ -28551,7 +28582,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>79</v>
       </c>
@@ -28577,7 +28608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>79</v>
       </c>
@@ -28603,7 +28634,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>79</v>
       </c>
@@ -28628,8 +28659,11 @@
       <c r="H206" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I206" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>79</v>
       </c>
@@ -28655,7 +28689,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>79</v>
       </c>
@@ -35479,7 +35513,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>204</v>
       </c>
@@ -35499,7 +35533,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>204</v>
       </c>
@@ -35519,7 +35553,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>204</v>
       </c>
@@ -35539,7 +35573,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>204</v>
       </c>
@@ -35559,7 +35593,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>204</v>
       </c>
@@ -35579,7 +35613,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>204</v>
       </c>
@@ -35599,7 +35633,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>204</v>
       </c>
@@ -35613,7 +35647,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>204</v>
       </c>
@@ -35627,7 +35661,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>204</v>
       </c>
@@ -35641,7 +35675,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>204</v>
       </c>
@@ -35655,7 +35689,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>204</v>
       </c>
@@ -35669,7 +35703,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>204</v>
       </c>
@@ -35683,7 +35717,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>204</v>
       </c>
@@ -35697,7 +35731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>204</v>
       </c>
@@ -35711,7 +35745,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>204</v>
       </c>
@@ -35725,7 +35759,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>204</v>
       </c>
@@ -35739,7 +35773,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>204</v>
       </c>
@@ -35753,7 +35787,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>204</v>
       </c>
@@ -35779,7 +35813,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>237</v>
       </c>
@@ -35799,7 +35833,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>237</v>
       </c>
@@ -35819,7 +35853,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>237</v>
       </c>
@@ -35839,7 +35873,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>237</v>
       </c>
@@ -35859,7 +35893,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>237</v>
       </c>
@@ -35879,7 +35913,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>237</v>
       </c>
@@ -35899,7 +35933,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>237</v>
       </c>
@@ -35919,7 +35953,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>237</v>
       </c>
@@ -35939,7 +35973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>237</v>
       </c>
@@ -35965,7 +35999,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>237</v>
       </c>
@@ -35991,7 +36025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>237</v>
       </c>
@@ -36017,7 +36051,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>237</v>
       </c>
@@ -36043,7 +36077,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>237</v>
       </c>
@@ -36069,7 +36103,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>237</v>
       </c>
@@ -36095,7 +36129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>237</v>
       </c>
@@ -36121,7 +36155,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>237</v>
       </c>
@@ -36147,7 +36181,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>237</v>
       </c>
@@ -36173,7 +36207,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>237</v>
       </c>
@@ -36199,7 +36233,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>237</v>
       </c>
@@ -36225,7 +36259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>237</v>
       </c>
@@ -36251,7 +36285,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>237</v>
       </c>
@@ -36277,7 +36311,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>237</v>
       </c>
@@ -36303,7 +36337,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>237</v>
       </c>
@@ -36329,7 +36363,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>237</v>
       </c>
@@ -36355,7 +36389,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>237</v>
       </c>
@@ -36369,7 +36403,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>237</v>
       </c>
@@ -36383,7 +36417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>237</v>
       </c>
@@ -36397,7 +36431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>237</v>
       </c>
@@ -36411,7 +36445,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>237</v>
       </c>
@@ -36425,7 +36459,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>237</v>
       </c>
@@ -36439,7 +36473,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>237</v>
       </c>
@@ -36453,7 +36487,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>237</v>
       </c>
@@ -36467,7 +36501,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>263</v>
       </c>
@@ -36487,7 +36521,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>263</v>
       </c>
@@ -36507,7 +36541,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>263</v>
       </c>
@@ -36527,7 +36561,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>263</v>
       </c>
@@ -36547,7 +36581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>263</v>
       </c>
@@ -36567,7 +36601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>263</v>
       </c>
@@ -36587,7 +36621,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>298</v>
       </c>
@@ -36607,7 +36641,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>298</v>
       </c>
@@ -36627,7 +36661,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>298</v>
       </c>
@@ -36647,7 +36681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>298</v>
       </c>
@@ -36667,7 +36701,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>298</v>
       </c>
@@ -36687,7 +36721,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>298</v>
       </c>
@@ -36707,7 +36741,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>298</v>
       </c>
@@ -36727,7 +36761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>298</v>
       </c>
@@ -36747,7 +36781,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>298</v>
       </c>
@@ -36767,7 +36801,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>298</v>
       </c>
@@ -36787,7 +36821,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>298</v>
       </c>
@@ -36807,7 +36841,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>298</v>
       </c>
@@ -36827,7 +36861,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>298</v>
       </c>
@@ -36847,7 +36881,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>298</v>
       </c>
@@ -36867,7 +36901,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>298</v>
       </c>
@@ -36887,7 +36921,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>298</v>
       </c>
@@ -36907,7 +36941,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>298</v>
       </c>
@@ -36927,7 +36961,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>298</v>
       </c>
@@ -36947,7 +36981,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>298</v>
       </c>
@@ -36967,7 +37001,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>298</v>
       </c>
@@ -36987,7 +37021,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>298</v>
       </c>
@@ -37007,7 +37041,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>298</v>
       </c>
@@ -37027,7 +37061,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>298</v>
       </c>
@@ -37047,7 +37081,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>298</v>
       </c>
@@ -37067,7 +37101,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>298</v>
       </c>
@@ -37087,7 +37121,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>298</v>
       </c>
@@ -37185,7 +37219,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>79</v>
       </c>
@@ -37211,7 +37245,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>79</v>
       </c>
@@ -37237,7 +37271,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>79</v>
       </c>
@@ -37263,7 +37297,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>79</v>
       </c>
@@ -37289,7 +37323,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>79</v>
       </c>
@@ -37315,7 +37349,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>79</v>
       </c>
@@ -37341,7 +37375,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>79</v>
       </c>
@@ -37367,7 +37401,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>79</v>
       </c>
@@ -37393,7 +37427,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>79</v>
       </c>
@@ -37419,7 +37453,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>79</v>
       </c>
@@ -37445,7 +37479,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>79</v>
       </c>
@@ -37471,7 +37505,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>79</v>
       </c>
@@ -37497,7 +37531,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>79</v>
       </c>
@@ -37523,7 +37557,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>79</v>
       </c>
@@ -37549,7 +37583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>79</v>
       </c>
@@ -37575,7 +37609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>79</v>
       </c>
@@ -37589,7 +37623,7 @@
         <v>80</v>
       </c>
       <c r="E576">
-        <v>488.1</v>
+        <v>48.1</v>
       </c>
       <c r="F576" t="s">
         <v>81</v>
@@ -37600,8 +37634,11 @@
       <c r="H576" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I576" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>79</v>
       </c>
@@ -37627,7 +37664,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>79</v>
       </c>
@@ -37653,7 +37690,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>79</v>
       </c>
@@ -37666,14 +37703,14 @@
       <c r="D579" t="s">
         <v>80</v>
       </c>
-      <c r="E579">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="F579" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I579" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>79</v>
       </c>
@@ -37699,7 +37736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>79</v>
       </c>
@@ -37725,7 +37762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>79</v>
       </c>
@@ -37751,7 +37788,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>79</v>
       </c>
@@ -37777,7 +37814,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>79</v>
       </c>
@@ -37803,7 +37840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>79</v>
       </c>
@@ -37829,7 +37866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>79</v>
       </c>
@@ -37849,13 +37886,16 @@
         <v>81</v>
       </c>
       <c r="G586">
-        <v>88.97</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="H586" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I586" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>79</v>
       </c>
@@ -37881,7 +37921,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>79</v>
       </c>
@@ -37907,7 +37947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>79</v>
       </c>
@@ -37933,7 +37973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>79</v>
       </c>
@@ -37947,7 +37987,7 @@
         <v>80</v>
       </c>
       <c r="E590">
-        <v>588.70000000000005</v>
+        <v>58.7</v>
       </c>
       <c r="F590" t="s">
         <v>81</v>
@@ -37958,8 +37998,11 @@
       <c r="H590" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I590" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>79</v>
       </c>
@@ -37985,7 +38028,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>79</v>
       </c>
@@ -38011,7 +38054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>79</v>
       </c>
@@ -38025,7 +38068,7 @@
         <v>80</v>
       </c>
       <c r="E593">
-        <v>49.88</v>
+        <v>49.8</v>
       </c>
       <c r="F593" t="s">
         <v>81</v>
@@ -38036,8 +38079,11 @@
       <c r="H593" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I593" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>79</v>
       </c>
@@ -38063,7 +38109,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>79</v>
       </c>
@@ -38089,7 +38135,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>79</v>
       </c>
@@ -38115,7 +38161,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>79</v>
       </c>
@@ -38141,7 +38187,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>79</v>
       </c>
@@ -38167,7 +38213,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>79</v>
       </c>
@@ -38193,7 +38239,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>79</v>
       </c>
@@ -38219,7 +38265,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>79</v>
       </c>
@@ -38245,7 +38291,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>79</v>
       </c>
@@ -38271,7 +38317,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>79</v>
       </c>
@@ -38297,7 +38343,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>79</v>
       </c>
@@ -38323,7 +38369,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>79</v>
       </c>
@@ -38349,7 +38395,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>79</v>
       </c>
@@ -38375,7 +38421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>79</v>
       </c>
@@ -38401,7 +38447,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>79</v>
       </c>
@@ -38415,7 +38461,7 @@
         <v>80</v>
       </c>
       <c r="E608">
-        <v>488.1</v>
+        <v>48.1</v>
       </c>
       <c r="F608" t="s">
         <v>81</v>
@@ -38426,6 +38472,9 @@
       <c r="H608" t="s">
         <v>35</v>
       </c>
+      <c r="I608" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
@@ -40091,7 +40140,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>79</v>
       </c>
@@ -40117,7 +40166,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>79</v>
       </c>
@@ -40143,7 +40192,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>79</v>
       </c>
@@ -40169,7 +40218,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>79</v>
       </c>
@@ -40195,7 +40244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>79</v>
       </c>
@@ -40221,7 +40270,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>79</v>
       </c>
@@ -40247,7 +40296,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>79</v>
       </c>
@@ -40273,7 +40322,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>79</v>
       </c>
@@ -40299,7 +40348,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>79</v>
       </c>
@@ -40325,7 +40374,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>79</v>
       </c>
@@ -40351,7 +40400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>79</v>
       </c>
@@ -40365,7 +40414,7 @@
         <v>80</v>
       </c>
       <c r="E683">
-        <v>49.3</v>
+        <v>44.3</v>
       </c>
       <c r="F683" t="s">
         <v>81</v>
@@ -40376,8 +40425,11 @@
       <c r="H683" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I683" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>79</v>
       </c>
@@ -40403,7 +40455,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>79</v>
       </c>
@@ -40429,7 +40481,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>79</v>
       </c>
@@ -40455,7 +40507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>79</v>
       </c>
@@ -40481,7 +40533,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>79</v>
       </c>
@@ -42509,7 +42561,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>204</v>
       </c>
@@ -42535,7 +42587,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>204</v>
       </c>
@@ -42561,7 +42613,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>204</v>
       </c>
@@ -42587,7 +42639,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>204</v>
       </c>
@@ -42613,7 +42665,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>204</v>
       </c>
@@ -42639,7 +42691,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>204</v>
       </c>
@@ -42665,7 +42717,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>204</v>
       </c>
@@ -42692,6 +42744,16 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I772">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Eagle Lake"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A10:I765">
+      <sortCondition ref="B1:B772"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -47294,9 +47356,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D632"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D629" sqref="D629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/portfolio/posts/_data/Pike_Chain_WQ_Data.xlsx
+++ b/portfolio/posts/_data/Pike_Chain_WQ_Data.xlsx
@@ -21,12 +21,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DO!$A$1:$I$772</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9098" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9162" uniqueCount="481">
   <si>
     <t>Buskey Bay</t>
   </si>
@@ -1458,6 +1458,18 @@
   <si>
     <t>Temp was originally 49.3</t>
   </si>
+  <si>
+    <t>Ogle/Hagstrom</t>
+  </si>
+  <si>
+    <t>63 deg F, light breeze, bright hazy, lake level slighly elevated from spring melt</t>
+  </si>
+  <si>
+    <t>Derek Ogle / Gary Hagstrom</t>
+  </si>
+  <si>
+    <t>111.1% O2 Saturation</t>
+  </si>
 </sst>
 </file>
 
@@ -2298,11 +2310,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q620"/>
+  <dimension ref="A1:Q621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A594" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A566" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F584" sqref="F584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22190,37 +22202,38 @@
     </row>
     <row r="584" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="B584">
-        <v>31846018</v>
+        <v>18137232</v>
       </c>
       <c r="C584" s="1">
-        <v>44393</v>
+        <v>45062</v>
       </c>
       <c r="D584">
-        <v>20.5</v>
+        <v>14</v>
       </c>
       <c r="E584" t="s">
         <v>1</v>
       </c>
       <c r="F584">
-        <v>6.2</v>
-      </c>
-      <c r="I584">
-        <v>34</v>
+        <f>ROUND(D584*0.3048,1)</f>
+        <v>4.3</v>
       </c>
       <c r="L584" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N584" t="s">
         <v>18</v>
       </c>
       <c r="O584" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="P584" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="Q584" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="585" spans="1:17" x14ac:dyDescent="0.3">
@@ -22231,22 +22244,22 @@
         <v>31846018</v>
       </c>
       <c r="C585" s="1">
-        <v>44749</v>
+        <v>44393</v>
       </c>
       <c r="D585">
-        <v>26.3</v>
+        <v>20.5</v>
       </c>
       <c r="E585" t="s">
         <v>1</v>
       </c>
       <c r="F585">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="I585">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L585" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N585" t="s">
         <v>18</v>
@@ -22255,10 +22268,7 @@
         <v>26</v>
       </c>
       <c r="P585" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q585" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="586" spans="1:17" x14ac:dyDescent="0.3">
@@ -22269,71 +22279,74 @@
         <v>31846018</v>
       </c>
       <c r="C586" s="1">
-        <v>44777</v>
+        <v>44749</v>
       </c>
       <c r="D586">
-        <v>23.2</v>
+        <v>26.3</v>
+      </c>
+      <c r="E586" t="s">
+        <v>1</v>
       </c>
       <c r="F586">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="I586">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="L586" t="s">
+        <v>21</v>
+      </c>
+      <c r="N586" t="s">
+        <v>18</v>
+      </c>
+      <c r="O586" t="s">
+        <v>26</v>
+      </c>
+      <c r="P586" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q586" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="587" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="B587">
-        <v>18137240</v>
+        <v>31846018</v>
       </c>
       <c r="C587" s="1">
-        <v>44372</v>
+        <v>44777</v>
       </c>
       <c r="D587">
-        <v>21</v>
-      </c>
-      <c r="E587" t="s">
-        <v>1</v>
+        <v>23.2</v>
       </c>
       <c r="F587">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="I587">
-        <v>33</v>
-      </c>
-      <c r="L587" t="s">
-        <v>21</v>
-      </c>
-      <c r="N587" t="s">
-        <v>18</v>
-      </c>
-      <c r="O587" t="s">
-        <v>26</v>
-      </c>
-      <c r="P587" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="588" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="B588">
-        <v>34997618</v>
+        <v>18137240</v>
       </c>
       <c r="C588" s="1">
-        <v>44374</v>
+        <v>44372</v>
       </c>
       <c r="D588">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E588" t="s">
         <v>1</v>
       </c>
       <c r="F588">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="I588">
         <v>33</v>
@@ -22348,7 +22361,7 @@
         <v>26</v>
       </c>
       <c r="P588" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="589" spans="1:17" x14ac:dyDescent="0.3">
@@ -22359,22 +22372,22 @@
         <v>34997618</v>
       </c>
       <c r="C589" s="1">
-        <v>44390</v>
+        <v>44374</v>
       </c>
       <c r="D589">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E589" t="s">
         <v>1</v>
       </c>
       <c r="F589">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="I589">
         <v>33</v>
       </c>
       <c r="L589" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N589" t="s">
         <v>18</v>
@@ -22394,7 +22407,7 @@
         <v>34997618</v>
       </c>
       <c r="C590" s="1">
-        <v>44430</v>
+        <v>44390</v>
       </c>
       <c r="D590">
         <v>21</v>
@@ -22429,22 +22442,22 @@
         <v>34997618</v>
       </c>
       <c r="C591" s="1">
-        <v>44478</v>
+        <v>44430</v>
       </c>
       <c r="D591">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E591" t="s">
         <v>1</v>
       </c>
       <c r="F591">
-        <v>7.3</v>
+        <v>6.4</v>
       </c>
       <c r="I591">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L591" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N591" t="s">
         <v>18</v>
@@ -22464,19 +22477,19 @@
         <v>34997618</v>
       </c>
       <c r="C592" s="1">
-        <v>44734</v>
+        <v>44478</v>
       </c>
       <c r="D592">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E592" t="s">
         <v>1</v>
       </c>
       <c r="F592">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="I592">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L592" t="s">
         <v>21</v>
@@ -22499,22 +22512,22 @@
         <v>34997618</v>
       </c>
       <c r="C593" s="1">
-        <v>44798</v>
+        <v>44734</v>
       </c>
       <c r="D593">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="E593" t="s">
         <v>1</v>
       </c>
       <c r="F593">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="I593">
         <v>30</v>
       </c>
       <c r="L593" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N593" t="s">
         <v>18</v>
@@ -22534,7 +22547,7 @@
         <v>34997618</v>
       </c>
       <c r="C594" s="1">
-        <v>44806</v>
+        <v>44798</v>
       </c>
       <c r="D594">
         <v>26.5</v>
@@ -22569,22 +22582,22 @@
         <v>34997618</v>
       </c>
       <c r="C595" s="1">
-        <v>44822</v>
+        <v>44806</v>
       </c>
       <c r="D595">
-        <v>25</v>
+        <v>26.5</v>
       </c>
       <c r="E595" t="s">
         <v>1</v>
       </c>
       <c r="F595">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="I595">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L595" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N595" t="s">
         <v>18</v>
@@ -22604,19 +22617,19 @@
         <v>34997618</v>
       </c>
       <c r="C596" s="1">
-        <v>44862</v>
+        <v>44822</v>
       </c>
       <c r="D596">
-        <v>26.5</v>
+        <v>25</v>
       </c>
       <c r="E596" t="s">
         <v>1</v>
       </c>
       <c r="F596">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="I596">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L596" t="s">
         <v>21</v>
@@ -22633,31 +22646,25 @@
     </row>
     <row r="597" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="B597">
-        <v>132253999</v>
+        <v>34997618</v>
       </c>
       <c r="C597" s="1">
-        <v>44319</v>
+        <v>44862</v>
       </c>
       <c r="D597">
-        <v>17</v>
+        <v>26.5</v>
       </c>
       <c r="E597" t="s">
         <v>1</v>
       </c>
       <c r="F597">
-        <v>5.2</v>
-      </c>
-      <c r="H597">
-        <v>16.7</v>
+        <v>8.1</v>
       </c>
       <c r="I597">
-        <v>36</v>
-      </c>
-      <c r="J597">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L597" t="s">
         <v>21</v>
@@ -22680,32 +22687,26 @@
         <v>132253999</v>
       </c>
       <c r="C598" s="1">
-        <v>44362</v>
+        <v>44319</v>
       </c>
       <c r="D598">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E598" t="s">
         <v>1</v>
       </c>
       <c r="F598">
-        <v>6.1</v>
-      </c>
-      <c r="G598">
-        <v>2.16</v>
+        <v>5.2</v>
       </c>
       <c r="H598">
-        <v>17.7</v>
+        <v>16.7</v>
       </c>
       <c r="I598">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J598">
         <v>50</v>
       </c>
-      <c r="K598">
-        <v>41</v>
-      </c>
       <c r="L598" t="s">
         <v>21</v>
       </c>
@@ -22727,19 +22728,31 @@
         <v>132253999</v>
       </c>
       <c r="C599" s="1">
-        <v>44372</v>
+        <v>44362</v>
       </c>
       <c r="D599">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E599" t="s">
         <v>1</v>
       </c>
       <c r="F599">
-        <v>5.5</v>
+        <v>6.1</v>
+      </c>
+      <c r="G599">
+        <v>2.16</v>
+      </c>
+      <c r="H599">
+        <v>17.7</v>
       </c>
       <c r="I599">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="J599">
+        <v>50</v>
+      </c>
+      <c r="K599">
+        <v>41</v>
       </c>
       <c r="L599" t="s">
         <v>21</v>
@@ -22748,10 +22761,10 @@
         <v>18</v>
       </c>
       <c r="O599" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P599" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="600" spans="1:16" x14ac:dyDescent="0.3">
@@ -22762,25 +22775,25 @@
         <v>132253999</v>
       </c>
       <c r="C600" s="1">
-        <v>44382</v>
+        <v>44372</v>
       </c>
       <c r="D600">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E600" t="s">
         <v>1</v>
       </c>
       <c r="F600">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="I600">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L600" t="s">
         <v>21</v>
       </c>
       <c r="N600" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O600" t="s">
         <v>19</v>
@@ -22797,10 +22810,19 @@
         <v>132253999</v>
       </c>
       <c r="C601" s="1">
-        <v>44385</v>
+        <v>44382</v>
+      </c>
+      <c r="D601">
+        <v>14</v>
       </c>
       <c r="E601" t="s">
         <v>1</v>
+      </c>
+      <c r="F601">
+        <v>4.3</v>
+      </c>
+      <c r="I601">
+        <v>39</v>
       </c>
       <c r="L601" t="s">
         <v>21</v>
@@ -22809,7 +22831,7 @@
         <v>25</v>
       </c>
       <c r="O601" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="P601" t="s">
         <v>20</v>
@@ -22823,28 +22845,19 @@
         <v>132253999</v>
       </c>
       <c r="C602" s="1">
-        <v>44386</v>
-      </c>
-      <c r="D602">
-        <v>17</v>
+        <v>44385</v>
       </c>
       <c r="E602" t="s">
         <v>1</v>
-      </c>
-      <c r="F602">
-        <v>5.2</v>
-      </c>
-      <c r="I602">
-        <v>36</v>
       </c>
       <c r="L602" t="s">
         <v>21</v>
       </c>
       <c r="N602" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O602" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="P602" t="s">
         <v>20</v>
@@ -22858,31 +22871,19 @@
         <v>132253999</v>
       </c>
       <c r="C603" s="1">
-        <v>44396</v>
+        <v>44386</v>
       </c>
       <c r="D603">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E603" t="s">
         <v>1</v>
       </c>
       <c r="F603">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G603">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="H603">
-        <v>13.3</v>
+        <v>5.2</v>
       </c>
       <c r="I603">
-        <v>37</v>
-      </c>
-      <c r="J603">
-        <v>48</v>
-      </c>
-      <c r="K603">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L603" t="s">
         <v>21</v>
@@ -22905,23 +22906,38 @@
         <v>132253999</v>
       </c>
       <c r="C604" s="1">
-        <v>44407</v>
+        <v>44396</v>
       </c>
       <c r="D604">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E604" t="s">
         <v>1</v>
       </c>
       <c r="F604">
-        <v>4.3</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G604">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H604">
+        <v>13.3</v>
       </c>
       <c r="I604">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="J604">
+        <v>48</v>
+      </c>
+      <c r="K604">
+        <v>42</v>
       </c>
       <c r="L604" t="s">
         <v>21</v>
       </c>
+      <c r="N604" t="s">
+        <v>18</v>
+      </c>
       <c r="O604" t="s">
         <v>19</v>
       </c>
@@ -22937,38 +22953,23 @@
         <v>132253999</v>
       </c>
       <c r="C605" s="1">
-        <v>44425</v>
+        <v>44407</v>
       </c>
       <c r="D605">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E605" t="s">
         <v>1</v>
       </c>
       <c r="F605">
-        <v>5.2</v>
-      </c>
-      <c r="G605">
-        <v>3.33</v>
-      </c>
-      <c r="H605">
-        <v>13.9</v>
+        <v>4.3</v>
       </c>
       <c r="I605">
-        <v>36</v>
-      </c>
-      <c r="J605">
-        <v>49</v>
-      </c>
-      <c r="K605">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L605" t="s">
         <v>21</v>
       </c>
-      <c r="N605" t="s">
-        <v>18</v>
-      </c>
       <c r="O605" t="s">
         <v>19</v>
       </c>
@@ -22984,16 +22985,31 @@
         <v>132253999</v>
       </c>
       <c r="C606" s="1">
-        <v>44438</v>
+        <v>44425</v>
       </c>
       <c r="D606">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="E606" t="s">
+        <v>1</v>
       </c>
       <c r="F606">
-        <v>5.8</v>
+        <v>5.2</v>
+      </c>
+      <c r="G606">
+        <v>3.33</v>
+      </c>
+      <c r="H606">
+        <v>13.9</v>
       </c>
       <c r="I606">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="J606">
+        <v>49</v>
+      </c>
+      <c r="K606">
+        <v>44</v>
       </c>
       <c r="L606" t="s">
         <v>21</v>
@@ -23002,7 +23018,7 @@
         <v>18</v>
       </c>
       <c r="O606" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P606" t="s">
         <v>20</v>
@@ -23016,14 +23032,11 @@
         <v>132253999</v>
       </c>
       <c r="C607" s="1">
-        <v>44445</v>
+        <v>44438</v>
       </c>
       <c r="D607">
         <v>19</v>
       </c>
-      <c r="E607" t="s">
-        <v>1</v>
-      </c>
       <c r="F607">
         <v>5.8</v>
       </c>
@@ -23036,6 +23049,9 @@
       <c r="N607" t="s">
         <v>18</v>
       </c>
+      <c r="O607" t="s">
+        <v>26</v>
+      </c>
       <c r="P607" t="s">
         <v>20</v>
       </c>
@@ -23048,19 +23064,19 @@
         <v>132253999</v>
       </c>
       <c r="C608" s="1">
-        <v>44456</v>
+        <v>44445</v>
       </c>
       <c r="D608">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E608" t="s">
         <v>1</v>
       </c>
       <c r="F608">
-        <v>4.9000000000000004</v>
+        <v>5.8</v>
       </c>
       <c r="I608">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L608" t="s">
         <v>21</v>
@@ -23068,9 +23084,6 @@
       <c r="N608" t="s">
         <v>18</v>
       </c>
-      <c r="O608" t="s">
-        <v>19</v>
-      </c>
       <c r="P608" t="s">
         <v>20</v>
       </c>
@@ -23083,19 +23096,19 @@
         <v>132253999</v>
       </c>
       <c r="C609" s="1">
-        <v>44724</v>
+        <v>44456</v>
       </c>
       <c r="D609">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E609" t="s">
         <v>1</v>
       </c>
       <c r="F609">
-        <v>6.1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I609">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L609" t="s">
         <v>21</v>
@@ -23103,6 +23116,9 @@
       <c r="N609" t="s">
         <v>18</v>
       </c>
+      <c r="O609" t="s">
+        <v>19</v>
+      </c>
       <c r="P609" t="s">
         <v>20</v>
       </c>
@@ -23115,37 +23131,25 @@
         <v>132253999</v>
       </c>
       <c r="C610" s="1">
-        <v>44734</v>
+        <v>44724</v>
       </c>
       <c r="D610">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E610" t="s">
         <v>1</v>
       </c>
       <c r="F610">
-        <v>5.8</v>
-      </c>
-      <c r="G610">
-        <v>4.49</v>
-      </c>
-      <c r="H610">
-        <v>14.1</v>
+        <v>6.1</v>
       </c>
       <c r="I610">
-        <v>35</v>
-      </c>
-      <c r="J610">
-        <v>49</v>
-      </c>
-      <c r="K610">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="L610" t="s">
         <v>21</v>
       </c>
-      <c r="O610" t="s">
-        <v>75</v>
+      <c r="N610" t="s">
+        <v>18</v>
       </c>
       <c r="P610" t="s">
         <v>20</v>
@@ -23159,25 +23163,37 @@
         <v>132253999</v>
       </c>
       <c r="C611" s="1">
-        <v>44744</v>
+        <v>44734</v>
       </c>
       <c r="D611">
+        <v>19</v>
+      </c>
+      <c r="E611" t="s">
+        <v>1</v>
+      </c>
+      <c r="F611">
+        <v>5.8</v>
+      </c>
+      <c r="G611">
+        <v>4.49</v>
+      </c>
+      <c r="H611">
+        <v>14.1</v>
+      </c>
+      <c r="I611">
+        <v>35</v>
+      </c>
+      <c r="J611">
+        <v>49</v>
+      </c>
+      <c r="K611">
+        <v>46</v>
+      </c>
+      <c r="L611" t="s">
         <v>21</v>
       </c>
-      <c r="E611" t="s">
-        <v>1</v>
-      </c>
-      <c r="F611">
-        <v>6.4</v>
-      </c>
-      <c r="I611">
-        <v>33</v>
-      </c>
-      <c r="L611" t="s">
-        <v>17</v>
-      </c>
-      <c r="N611" t="s">
-        <v>18</v>
+      <c r="O611" t="s">
+        <v>75</v>
       </c>
       <c r="P611" t="s">
         <v>20</v>
@@ -23191,19 +23207,19 @@
         <v>132253999</v>
       </c>
       <c r="C612" s="1">
-        <v>44757</v>
+        <v>44744</v>
       </c>
       <c r="D612">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E612" t="s">
         <v>1</v>
       </c>
       <c r="F612">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="I612">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L612" t="s">
         <v>17</v>
@@ -23211,9 +23227,6 @@
       <c r="N612" t="s">
         <v>18</v>
       </c>
-      <c r="O612" t="s">
-        <v>75</v>
-      </c>
       <c r="P612" t="s">
         <v>20</v>
       </c>
@@ -23223,22 +23236,34 @@
         <v>79</v>
       </c>
       <c r="B613">
-        <v>1</v>
+        <v>132253999</v>
       </c>
       <c r="C613" s="1">
-        <v>44760</v>
-      </c>
-      <c r="G613">
-        <v>2.54</v>
-      </c>
-      <c r="H613">
-        <v>14.9</v>
-      </c>
-      <c r="J613">
-        <v>49</v>
-      </c>
-      <c r="K613">
-        <v>42</v>
+        <v>44757</v>
+      </c>
+      <c r="D613">
+        <v>19</v>
+      </c>
+      <c r="E613" t="s">
+        <v>1</v>
+      </c>
+      <c r="F613">
+        <v>5.8</v>
+      </c>
+      <c r="I613">
+        <v>35</v>
+      </c>
+      <c r="L613" t="s">
+        <v>17</v>
+      </c>
+      <c r="N613" t="s">
+        <v>18</v>
+      </c>
+      <c r="O613" t="s">
+        <v>75</v>
+      </c>
+      <c r="P613" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="614" spans="1:16" x14ac:dyDescent="0.3">
@@ -23246,31 +23271,22 @@
         <v>79</v>
       </c>
       <c r="B614">
-        <v>132253999</v>
+        <v>1</v>
       </c>
       <c r="C614" s="1">
-        <v>44771</v>
-      </c>
-      <c r="D614">
-        <v>18</v>
-      </c>
-      <c r="E614" t="s">
-        <v>1</v>
-      </c>
-      <c r="F614">
-        <v>5.5</v>
-      </c>
-      <c r="I614">
-        <v>35</v>
-      </c>
-      <c r="L614" t="s">
-        <v>17</v>
-      </c>
-      <c r="N614" t="s">
-        <v>18</v>
-      </c>
-      <c r="P614" t="s">
-        <v>20</v>
+        <v>44760</v>
+      </c>
+      <c r="G614">
+        <v>2.54</v>
+      </c>
+      <c r="H614">
+        <v>14.9</v>
+      </c>
+      <c r="J614">
+        <v>49</v>
+      </c>
+      <c r="K614">
+        <v>42</v>
       </c>
     </row>
     <row r="615" spans="1:16" x14ac:dyDescent="0.3">
@@ -23281,7 +23297,7 @@
         <v>132253999</v>
       </c>
       <c r="C615" s="1">
-        <v>44783</v>
+        <v>44771</v>
       </c>
       <c r="D615">
         <v>18</v>
@@ -23301,9 +23317,6 @@
       <c r="N615" t="s">
         <v>18</v>
       </c>
-      <c r="O615" t="s">
-        <v>75</v>
-      </c>
       <c r="P615" t="s">
         <v>20</v>
       </c>
@@ -23316,23 +23329,26 @@
         <v>132253999</v>
       </c>
       <c r="C616" s="1">
-        <v>44798</v>
+        <v>44783</v>
       </c>
       <c r="D616">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E616" t="s">
         <v>1</v>
       </c>
       <c r="F616">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="I616">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L616" t="s">
         <v>17</v>
       </c>
+      <c r="N616" t="s">
+        <v>18</v>
+      </c>
       <c r="O616" t="s">
         <v>75</v>
       </c>
@@ -23345,57 +23361,54 @@
         <v>79</v>
       </c>
       <c r="B617">
-        <v>1</v>
+        <v>132253999</v>
       </c>
       <c r="C617" s="1">
-        <v>44810</v>
-      </c>
-      <c r="G617">
-        <v>3.27</v>
-      </c>
-      <c r="H617">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="J617">
-        <v>50</v>
-      </c>
-      <c r="K617">
-        <v>44</v>
+        <v>44798</v>
+      </c>
+      <c r="D617">
+        <v>17</v>
+      </c>
+      <c r="E617" t="s">
+        <v>1</v>
+      </c>
+      <c r="F617">
+        <v>5.2</v>
+      </c>
+      <c r="I617">
+        <v>36</v>
+      </c>
+      <c r="L617" t="s">
+        <v>17</v>
+      </c>
+      <c r="O617" t="s">
+        <v>75</v>
+      </c>
+      <c r="P617" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="618" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="B618">
-        <v>132253999</v>
+        <v>1</v>
       </c>
       <c r="C618" s="1">
-        <v>44385</v>
-      </c>
-      <c r="D618">
-        <v>8</v>
-      </c>
-      <c r="E618" t="s">
-        <v>202</v>
-      </c>
-      <c r="F618">
-        <v>2.4</v>
-      </c>
-      <c r="I618">
-        <v>47</v>
-      </c>
-      <c r="L618" t="s">
-        <v>21</v>
-      </c>
-      <c r="N618" t="s">
-        <v>25</v>
-      </c>
-      <c r="O618" t="s">
-        <v>19</v>
-      </c>
-      <c r="P618" t="s">
-        <v>20</v>
+        <v>44810</v>
+      </c>
+      <c r="G618">
+        <v>3.27</v>
+      </c>
+      <c r="H618">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J618">
+        <v>50</v>
+      </c>
+      <c r="K618">
+        <v>44</v>
       </c>
     </row>
     <row r="619" spans="1:16" x14ac:dyDescent="0.3">
@@ -23406,10 +23419,13 @@
         <v>132253999</v>
       </c>
       <c r="C619" s="1">
-        <v>44396</v>
+        <v>44385</v>
       </c>
       <c r="D619">
         <v>8</v>
+      </c>
+      <c r="E619" t="s">
+        <v>202</v>
       </c>
       <c r="F619">
         <v>2.4</v>
@@ -23438,14 +23454,11 @@
         <v>132253999</v>
       </c>
       <c r="C620" s="1">
-        <v>44438</v>
+        <v>44396</v>
       </c>
       <c r="D620">
         <v>8</v>
       </c>
-      <c r="E620" t="s">
-        <v>202</v>
-      </c>
       <c r="F620">
         <v>2.4</v>
       </c>
@@ -23462,6 +23475,41 @@
         <v>19</v>
       </c>
       <c r="P620" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="621" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>204</v>
+      </c>
+      <c r="B621">
+        <v>132253999</v>
+      </c>
+      <c r="C621" s="1">
+        <v>44438</v>
+      </c>
+      <c r="D621">
+        <v>8</v>
+      </c>
+      <c r="E621" t="s">
+        <v>202</v>
+      </c>
+      <c r="F621">
+        <v>2.4</v>
+      </c>
+      <c r="I621">
+        <v>47</v>
+      </c>
+      <c r="L621" t="s">
+        <v>21</v>
+      </c>
+      <c r="N621" t="s">
+        <v>25</v>
+      </c>
+      <c r="O621" t="s">
+        <v>19</v>
+      </c>
+      <c r="P621" t="s">
         <v>20</v>
       </c>
     </row>
@@ -23474,11 +23522,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I772"/>
+  <dimension ref="A1:I785"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A671" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E684" sqref="E684"/>
+      <pane ySplit="1" topLeftCell="A532" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I775" sqref="I775"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23682,7 +23730,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -23708,7 +23756,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -23734,7 +23782,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -23760,7 +23808,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -23786,7 +23834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -23812,7 +23860,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -23838,7 +23886,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -23864,7 +23912,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -23890,7 +23938,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -23916,7 +23964,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -23942,7 +23990,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -23962,7 +24010,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -23982,7 +24030,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -24002,7 +24050,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -24022,7 +24070,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -24042,7 +24090,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -24062,7 +24110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -24082,7 +24130,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -24102,7 +24150,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -24128,7 +24176,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -24154,7 +24202,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -24180,7 +24228,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -24206,7 +24254,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -24232,7 +24280,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -24258,7 +24306,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -24284,7 +24332,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -24310,7 +24358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -24336,7 +24384,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -24362,7 +24410,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -24388,7 +24436,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -24414,7 +24462,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -24440,7 +24488,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -24466,7 +24514,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -24492,7 +24540,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -24518,7 +24566,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -24544,7 +24592,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -24570,7 +24618,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -24596,7 +24644,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>79</v>
       </c>
@@ -24622,7 +24670,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -24648,7 +24696,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>79</v>
       </c>
@@ -24674,7 +24722,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -24700,7 +24748,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>79</v>
       </c>
@@ -24726,7 +24774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -24752,7 +24800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -24778,7 +24826,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -24804,7 +24852,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>79</v>
       </c>
@@ -24830,7 +24878,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -24856,7 +24904,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -24882,7 +24930,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -24908,7 +24956,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -24934,7 +24982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -24960,7 +25008,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -24986,7 +25034,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -25012,7 +25060,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -25038,7 +25086,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -25064,7 +25112,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -25090,7 +25138,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -25116,7 +25164,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -25142,7 +25190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -25168,7 +25216,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>79</v>
       </c>
@@ -25194,7 +25242,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -25220,7 +25268,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -25246,7 +25294,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -25272,7 +25320,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -25298,7 +25346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -25324,7 +25372,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -25350,7 +25398,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -25376,7 +25424,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -25402,7 +25450,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -25428,7 +25476,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -25454,7 +25502,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -25480,7 +25528,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -25506,7 +25554,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -25532,7 +25580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -25558,7 +25606,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>79</v>
       </c>
@@ -25584,7 +25632,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -25610,7 +25658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>79</v>
       </c>
@@ -25636,7 +25684,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>79</v>
       </c>
@@ -25662,7 +25710,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>79</v>
       </c>
@@ -25688,7 +25736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>79</v>
       </c>
@@ -25714,7 +25762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>79</v>
       </c>
@@ -25740,7 +25788,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>79</v>
       </c>
@@ -25766,7 +25814,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -25792,7 +25840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>79</v>
       </c>
@@ -25818,7 +25866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>79</v>
       </c>
@@ -25844,7 +25892,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>79</v>
       </c>
@@ -25870,7 +25918,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>79</v>
       </c>
@@ -25896,7 +25944,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>79</v>
       </c>
@@ -25922,7 +25970,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>79</v>
       </c>
@@ -25948,7 +25996,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>79</v>
       </c>
@@ -25974,7 +26022,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>79</v>
       </c>
@@ -26000,7 +26048,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>79</v>
       </c>
@@ -26026,7 +26074,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>79</v>
       </c>
@@ -26052,7 +26100,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>79</v>
       </c>
@@ -26078,7 +26126,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>79</v>
       </c>
@@ -26104,7 +26152,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>79</v>
       </c>
@@ -26130,7 +26178,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>79</v>
       </c>
@@ -26156,7 +26204,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>79</v>
       </c>
@@ -26182,7 +26230,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>79</v>
       </c>
@@ -26208,7 +26256,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>79</v>
       </c>
@@ -26234,7 +26282,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>79</v>
       </c>
@@ -26260,7 +26308,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>79</v>
       </c>
@@ -26286,7 +26334,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>79</v>
       </c>
@@ -26312,7 +26360,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>79</v>
       </c>
@@ -26338,7 +26386,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>79</v>
       </c>
@@ -26364,7 +26412,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>79</v>
       </c>
@@ -26390,7 +26438,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>79</v>
       </c>
@@ -26416,7 +26464,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>79</v>
       </c>
@@ -26442,7 +26490,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>79</v>
       </c>
@@ -26468,7 +26516,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>79</v>
       </c>
@@ -26494,7 +26542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>79</v>
       </c>
@@ -26520,7 +26568,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>79</v>
       </c>
@@ -26546,7 +26594,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>79</v>
       </c>
@@ -26572,7 +26620,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>79</v>
       </c>
@@ -26598,7 +26646,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>79</v>
       </c>
@@ -26624,7 +26672,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>79</v>
       </c>
@@ -26650,7 +26698,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>79</v>
       </c>
@@ -26676,7 +26724,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>79</v>
       </c>
@@ -26702,7 +26750,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>79</v>
       </c>
@@ -26728,7 +26776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>79</v>
       </c>
@@ -26754,7 +26802,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>79</v>
       </c>
@@ -26780,7 +26828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>79</v>
       </c>
@@ -26806,7 +26854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>79</v>
       </c>
@@ -26832,7 +26880,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>79</v>
       </c>
@@ -26858,7 +26906,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>79</v>
       </c>
@@ -26884,7 +26932,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>79</v>
       </c>
@@ -26910,7 +26958,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>79</v>
       </c>
@@ -26936,7 +26984,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>79</v>
       </c>
@@ -26962,7 +27010,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>79</v>
       </c>
@@ -26988,7 +27036,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>79</v>
       </c>
@@ -27014,7 +27062,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>79</v>
       </c>
@@ -27040,7 +27088,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>79</v>
       </c>
@@ -27066,7 +27114,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>79</v>
       </c>
@@ -27092,7 +27140,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>79</v>
       </c>
@@ -27118,7 +27166,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>79</v>
       </c>
@@ -27144,7 +27192,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>79</v>
       </c>
@@ -27170,7 +27218,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>79</v>
       </c>
@@ -27196,7 +27244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>79</v>
       </c>
@@ -27222,7 +27270,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>79</v>
       </c>
@@ -27248,7 +27296,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>79</v>
       </c>
@@ -27274,7 +27322,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>79</v>
       </c>
@@ -27300,7 +27348,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>79</v>
       </c>
@@ -27326,7 +27374,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>79</v>
       </c>
@@ -27352,7 +27400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>79</v>
       </c>
@@ -27378,7 +27426,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>79</v>
       </c>
@@ -27404,7 +27452,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>79</v>
       </c>
@@ -27430,7 +27478,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>79</v>
       </c>
@@ -27456,7 +27504,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>79</v>
       </c>
@@ -27482,7 +27530,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>79</v>
       </c>
@@ -27508,7 +27556,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>79</v>
       </c>
@@ -27534,7 +27582,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>79</v>
       </c>
@@ -27560,7 +27608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>79</v>
       </c>
@@ -27586,7 +27634,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>79</v>
       </c>
@@ -27612,7 +27660,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>79</v>
       </c>
@@ -27638,7 +27686,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>79</v>
       </c>
@@ -27664,7 +27712,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>79</v>
       </c>
@@ -27690,7 +27738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>79</v>
       </c>
@@ -27716,7 +27764,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>79</v>
       </c>
@@ -27742,7 +27790,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>79</v>
       </c>
@@ -27768,7 +27816,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>79</v>
       </c>
@@ -27794,7 +27842,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>79</v>
       </c>
@@ -27820,7 +27868,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>79</v>
       </c>
@@ -27846,7 +27894,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>79</v>
       </c>
@@ -27872,7 +27920,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>79</v>
       </c>
@@ -27898,7 +27946,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>79</v>
       </c>
@@ -27924,7 +27972,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>79</v>
       </c>
@@ -27950,7 +27998,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>79</v>
       </c>
@@ -27976,7 +28024,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>79</v>
       </c>
@@ -28002,7 +28050,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>79</v>
       </c>
@@ -28016,7 +28064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>79</v>
       </c>
@@ -28030,7 +28078,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>79</v>
       </c>
@@ -28044,7 +28092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>79</v>
       </c>
@@ -28058,7 +28106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>79</v>
       </c>
@@ -28072,7 +28120,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>79</v>
       </c>
@@ -28086,7 +28134,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>79</v>
       </c>
@@ -28100,7 +28148,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>79</v>
       </c>
@@ -28114,7 +28162,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>79</v>
       </c>
@@ -28140,7 +28188,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>79</v>
       </c>
@@ -28166,7 +28214,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>79</v>
       </c>
@@ -28192,7 +28240,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>79</v>
       </c>
@@ -28218,7 +28266,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>79</v>
       </c>
@@ -28244,7 +28292,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>79</v>
       </c>
@@ -28270,7 +28318,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>79</v>
       </c>
@@ -28296,7 +28344,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>79</v>
       </c>
@@ -28322,7 +28370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>79</v>
       </c>
@@ -28348,7 +28396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>79</v>
       </c>
@@ -28374,7 +28422,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>79</v>
       </c>
@@ -28400,7 +28448,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>79</v>
       </c>
@@ -28426,7 +28474,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>79</v>
       </c>
@@ -28452,7 +28500,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>79</v>
       </c>
@@ -28478,7 +28526,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>79</v>
       </c>
@@ -28504,7 +28552,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>79</v>
       </c>
@@ -28530,7 +28578,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>79</v>
       </c>
@@ -28556,7 +28604,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>79</v>
       </c>
@@ -28582,7 +28630,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>79</v>
       </c>
@@ -28608,7 +28656,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>79</v>
       </c>
@@ -28634,7 +28682,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>79</v>
       </c>
@@ -28663,7 +28711,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>79</v>
       </c>
@@ -28689,7 +28737,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>79</v>
       </c>
@@ -28715,7 +28763,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>79</v>
       </c>
@@ -28741,7 +28789,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>79</v>
       </c>
@@ -28767,7 +28815,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>79</v>
       </c>
@@ -28793,7 +28841,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>79</v>
       </c>
@@ -28819,7 +28867,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>79</v>
       </c>
@@ -28845,7 +28893,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>79</v>
       </c>
@@ -28871,7 +28919,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>79</v>
       </c>
@@ -28897,7 +28945,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>79</v>
       </c>
@@ -28923,7 +28971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>79</v>
       </c>
@@ -28949,7 +28997,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>79</v>
       </c>
@@ -28975,7 +29023,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>79</v>
       </c>
@@ -29001,7 +29049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>79</v>
       </c>
@@ -29027,7 +29075,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>79</v>
       </c>
@@ -29053,7 +29101,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>79</v>
       </c>
@@ -29079,7 +29127,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>79</v>
       </c>
@@ -29105,7 +29153,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>79</v>
       </c>
@@ -29131,7 +29179,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>79</v>
       </c>
@@ -29157,7 +29205,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>79</v>
       </c>
@@ -29183,7 +29231,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>79</v>
       </c>
@@ -29209,7 +29257,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>79</v>
       </c>
@@ -29235,7 +29283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>79</v>
       </c>
@@ -29261,7 +29309,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>79</v>
       </c>
@@ -29287,7 +29335,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>79</v>
       </c>
@@ -29313,7 +29361,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>79</v>
       </c>
@@ -29339,7 +29387,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>79</v>
       </c>
@@ -29365,7 +29413,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>79</v>
       </c>
@@ -29391,7 +29439,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>79</v>
       </c>
@@ -29417,7 +29465,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>79</v>
       </c>
@@ -29443,7 +29491,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>79</v>
       </c>
@@ -29469,7 +29517,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>79</v>
       </c>
@@ -29495,7 +29543,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>79</v>
       </c>
@@ -29521,7 +29569,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>79</v>
       </c>
@@ -29547,7 +29595,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>79</v>
       </c>
@@ -29573,7 +29621,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>79</v>
       </c>
@@ -29599,7 +29647,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>79</v>
       </c>
@@ -29625,7 +29673,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>79</v>
       </c>
@@ -29651,7 +29699,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>79</v>
       </c>
@@ -29677,7 +29725,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>79</v>
       </c>
@@ -29703,7 +29751,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>79</v>
       </c>
@@ -29729,7 +29777,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>79</v>
       </c>
@@ -29755,7 +29803,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>79</v>
       </c>
@@ -29781,7 +29829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>79</v>
       </c>
@@ -29807,7 +29855,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>79</v>
       </c>
@@ -29833,7 +29881,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>79</v>
       </c>
@@ -29859,7 +29907,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>79</v>
       </c>
@@ -29885,7 +29933,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>79</v>
       </c>
@@ -29911,7 +29959,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>79</v>
       </c>
@@ -29937,7 +29985,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>79</v>
       </c>
@@ -29963,7 +30011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>79</v>
       </c>
@@ -29989,7 +30037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>79</v>
       </c>
@@ -30015,7 +30063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>79</v>
       </c>
@@ -30041,7 +30089,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>79</v>
       </c>
@@ -30067,7 +30115,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>79</v>
       </c>
@@ -30093,7 +30141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>79</v>
       </c>
@@ -30119,7 +30167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>79</v>
       </c>
@@ -30145,7 +30193,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>79</v>
       </c>
@@ -30171,7 +30219,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>79</v>
       </c>
@@ -30197,7 +30245,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>79</v>
       </c>
@@ -30223,7 +30271,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>79</v>
       </c>
@@ -30249,7 +30297,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>79</v>
       </c>
@@ -30275,7 +30323,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>79</v>
       </c>
@@ -30301,7 +30349,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>79</v>
       </c>
@@ -30327,7 +30375,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>79</v>
       </c>
@@ -30353,7 +30401,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>79</v>
       </c>
@@ -30379,7 +30427,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>79</v>
       </c>
@@ -30405,7 +30453,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>79</v>
       </c>
@@ -30431,7 +30479,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>79</v>
       </c>
@@ -30457,7 +30505,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>79</v>
       </c>
@@ -30483,7 +30531,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>79</v>
       </c>
@@ -30509,7 +30557,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>79</v>
       </c>
@@ -30535,7 +30583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>79</v>
       </c>
@@ -30561,7 +30609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>79</v>
       </c>
@@ -30587,7 +30635,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>79</v>
       </c>
@@ -30613,7 +30661,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>79</v>
       </c>
@@ -30639,7 +30687,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>79</v>
       </c>
@@ -30665,7 +30713,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>79</v>
       </c>
@@ -30691,7 +30739,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>79</v>
       </c>
@@ -30717,7 +30765,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>79</v>
       </c>
@@ -30743,7 +30791,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>79</v>
       </c>
@@ -30769,7 +30817,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>79</v>
       </c>
@@ -30795,7 +30843,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>79</v>
       </c>
@@ -30821,7 +30869,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>79</v>
       </c>
@@ -30847,7 +30895,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>79</v>
       </c>
@@ -30861,7 +30909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>79</v>
       </c>
@@ -30875,7 +30923,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>79</v>
       </c>
@@ -30889,7 +30937,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>79</v>
       </c>
@@ -30903,7 +30951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>79</v>
       </c>
@@ -30917,7 +30965,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>79</v>
       </c>
@@ -30931,7 +30979,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>79</v>
       </c>
@@ -30957,7 +31005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>79</v>
       </c>
@@ -30983,7 +31031,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>79</v>
       </c>
@@ -31009,7 +31057,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>79</v>
       </c>
@@ -31035,7 +31083,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>79</v>
       </c>
@@ -31061,7 +31109,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>79</v>
       </c>
@@ -31087,7 +31135,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>79</v>
       </c>
@@ -31113,7 +31161,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>79</v>
       </c>
@@ -31139,7 +31187,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>79</v>
       </c>
@@ -31165,7 +31213,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>79</v>
       </c>
@@ -31191,7 +31239,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>79</v>
       </c>
@@ -31217,7 +31265,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>79</v>
       </c>
@@ -31243,7 +31291,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>79</v>
       </c>
@@ -31269,7 +31317,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>79</v>
       </c>
@@ -31295,7 +31343,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>79</v>
       </c>
@@ -31309,7 +31357,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>79</v>
       </c>
@@ -31323,7 +31371,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>79</v>
       </c>
@@ -31349,7 +31397,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>79</v>
       </c>
@@ -31375,7 +31423,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>79</v>
       </c>
@@ -31401,7 +31449,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>79</v>
       </c>
@@ -31427,7 +31475,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>79</v>
       </c>
@@ -31453,7 +31501,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>79</v>
       </c>
@@ -31479,7 +31527,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>79</v>
       </c>
@@ -31505,7 +31553,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>79</v>
       </c>
@@ -31531,7 +31579,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>79</v>
       </c>
@@ -31557,7 +31605,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>79</v>
       </c>
@@ -31583,7 +31631,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>79</v>
       </c>
@@ -31609,7 +31657,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>79</v>
       </c>
@@ -31635,7 +31683,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>79</v>
       </c>
@@ -31661,7 +31709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>79</v>
       </c>
@@ -31687,7 +31735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>79</v>
       </c>
@@ -31701,7 +31749,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>79</v>
       </c>
@@ -31727,7 +31775,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>79</v>
       </c>
@@ -31753,7 +31801,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>79</v>
       </c>
@@ -31779,7 +31827,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>79</v>
       </c>
@@ -31805,7 +31853,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>79</v>
       </c>
@@ -31831,7 +31879,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>79</v>
       </c>
@@ -31857,7 +31905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>79</v>
       </c>
@@ -31883,7 +31931,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>79</v>
       </c>
@@ -31909,7 +31957,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>79</v>
       </c>
@@ -31935,7 +31983,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>79</v>
       </c>
@@ -31961,7 +32009,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>79</v>
       </c>
@@ -31987,7 +32035,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>79</v>
       </c>
@@ -32013,7 +32061,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>79</v>
       </c>
@@ -32039,7 +32087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>79</v>
       </c>
@@ -32053,7 +32101,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>79</v>
       </c>
@@ -32067,7 +32115,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>79</v>
       </c>
@@ -32093,7 +32141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>79</v>
       </c>
@@ -32119,7 +32167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>79</v>
       </c>
@@ -32145,7 +32193,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>79</v>
       </c>
@@ -32171,7 +32219,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>79</v>
       </c>
@@ -32197,7 +32245,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>79</v>
       </c>
@@ -32223,7 +32271,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>79</v>
       </c>
@@ -32249,7 +32297,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>79</v>
       </c>
@@ -32275,7 +32323,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>79</v>
       </c>
@@ -32301,7 +32349,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>79</v>
       </c>
@@ -32327,7 +32375,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>79</v>
       </c>
@@ -32353,7 +32401,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>79</v>
       </c>
@@ -32379,7 +32427,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>79</v>
       </c>
@@ -32405,7 +32453,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>79</v>
       </c>
@@ -32431,7 +32479,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>79</v>
       </c>
@@ -32457,7 +32505,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>79</v>
       </c>
@@ -32471,7 +32519,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>79</v>
       </c>
@@ -32497,7 +32545,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>79</v>
       </c>
@@ -32523,7 +32571,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>79</v>
       </c>
@@ -32549,7 +32597,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>79</v>
       </c>
@@ -32575,7 +32623,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>79</v>
       </c>
@@ -32601,7 +32649,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>79</v>
       </c>
@@ -32627,7 +32675,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>79</v>
       </c>
@@ -32653,7 +32701,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>79</v>
       </c>
@@ -32679,7 +32727,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>79</v>
       </c>
@@ -32705,7 +32753,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>79</v>
       </c>
@@ -32731,7 +32779,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>79</v>
       </c>
@@ -32757,7 +32805,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>79</v>
       </c>
@@ -32783,7 +32831,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>79</v>
       </c>
@@ -32809,7 +32857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>79</v>
       </c>
@@ -32835,7 +32883,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>79</v>
       </c>
@@ -32861,7 +32909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>79</v>
       </c>
@@ -32887,7 +32935,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>79</v>
       </c>
@@ -32913,7 +32961,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>79</v>
       </c>
@@ -32939,7 +32987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>79</v>
       </c>
@@ -32965,7 +33013,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>79</v>
       </c>
@@ -32991,7 +33039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>79</v>
       </c>
@@ -33017,7 +33065,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>79</v>
       </c>
@@ -33043,7 +33091,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>79</v>
       </c>
@@ -33069,7 +33117,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>79</v>
       </c>
@@ -33095,7 +33143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>79</v>
       </c>
@@ -33121,7 +33169,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>79</v>
       </c>
@@ -33147,7 +33195,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>79</v>
       </c>
@@ -33173,7 +33221,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>79</v>
       </c>
@@ -33199,7 +33247,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>79</v>
       </c>
@@ -33225,7 +33273,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>79</v>
       </c>
@@ -33251,7 +33299,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>79</v>
       </c>
@@ -33277,7 +33325,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>79</v>
       </c>
@@ -33303,7 +33351,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>79</v>
       </c>
@@ -33329,7 +33377,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>79</v>
       </c>
@@ -33355,7 +33403,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>79</v>
       </c>
@@ -33381,7 +33429,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>79</v>
       </c>
@@ -33407,7 +33455,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>79</v>
       </c>
@@ -33433,7 +33481,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>79</v>
       </c>
@@ -33459,7 +33507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>79</v>
       </c>
@@ -33485,7 +33533,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>79</v>
       </c>
@@ -33511,7 +33559,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>79</v>
       </c>
@@ -33537,7 +33585,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>79</v>
       </c>
@@ -33563,7 +33611,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>79</v>
       </c>
@@ -33589,7 +33637,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>79</v>
       </c>
@@ -33615,7 +33663,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>79</v>
       </c>
@@ -33641,7 +33689,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>79</v>
       </c>
@@ -33667,7 +33715,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>79</v>
       </c>
@@ -33693,7 +33741,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>79</v>
       </c>
@@ -33719,7 +33767,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>79</v>
       </c>
@@ -33745,7 +33793,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>79</v>
       </c>
@@ -33771,7 +33819,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>79</v>
       </c>
@@ -33797,7 +33845,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>79</v>
       </c>
@@ -33823,7 +33871,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>79</v>
       </c>
@@ -33849,7 +33897,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>79</v>
       </c>
@@ -33875,7 +33923,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>79</v>
       </c>
@@ -33901,7 +33949,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>79</v>
       </c>
@@ -33927,7 +33975,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>79</v>
       </c>
@@ -33953,7 +34001,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>79</v>
       </c>
@@ -33979,7 +34027,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>79</v>
       </c>
@@ -34005,7 +34053,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>79</v>
       </c>
@@ -34031,7 +34079,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>79</v>
       </c>
@@ -34057,7 +34105,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>79</v>
       </c>
@@ -34083,7 +34131,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>79</v>
       </c>
@@ -34109,7 +34157,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>79</v>
       </c>
@@ -34135,7 +34183,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>79</v>
       </c>
@@ -34161,7 +34209,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>79</v>
       </c>
@@ -34187,7 +34235,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>79</v>
       </c>
@@ -34213,7 +34261,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>79</v>
       </c>
@@ -34239,7 +34287,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>79</v>
       </c>
@@ -34265,7 +34313,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>79</v>
       </c>
@@ -34291,7 +34339,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>79</v>
       </c>
@@ -34317,7 +34365,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>79</v>
       </c>
@@ -34343,7 +34391,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>79</v>
       </c>
@@ -34369,7 +34417,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>79</v>
       </c>
@@ -34395,7 +34443,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>79</v>
       </c>
@@ -34421,7 +34469,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>79</v>
       </c>
@@ -34447,7 +34495,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>79</v>
       </c>
@@ -34473,7 +34521,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>79</v>
       </c>
@@ -34499,7 +34547,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>79</v>
       </c>
@@ -34525,7 +34573,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>79</v>
       </c>
@@ -34551,7 +34599,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>79</v>
       </c>
@@ -34577,7 +34625,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>79</v>
       </c>
@@ -34603,7 +34651,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>79</v>
       </c>
@@ -34629,7 +34677,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>79</v>
       </c>
@@ -34655,7 +34703,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>79</v>
       </c>
@@ -34681,7 +34729,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>79</v>
       </c>
@@ -34707,7 +34755,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>79</v>
       </c>
@@ -34733,7 +34781,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>79</v>
       </c>
@@ -34759,7 +34807,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>79</v>
       </c>
@@ -34785,7 +34833,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>79</v>
       </c>
@@ -34811,7 +34859,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>79</v>
       </c>
@@ -34837,7 +34885,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>79</v>
       </c>
@@ -34863,7 +34911,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>79</v>
       </c>
@@ -34889,7 +34937,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>79</v>
       </c>
@@ -34915,7 +34963,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>79</v>
       </c>
@@ -34941,7 +34989,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>79</v>
       </c>
@@ -34967,7 +35015,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>79</v>
       </c>
@@ -34993,7 +35041,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>79</v>
       </c>
@@ -35019,7 +35067,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>79</v>
       </c>
@@ -35045,7 +35093,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>79</v>
       </c>
@@ -35071,7 +35119,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>79</v>
       </c>
@@ -35097,7 +35145,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>79</v>
       </c>
@@ -35123,7 +35171,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>79</v>
       </c>
@@ -35149,7 +35197,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>79</v>
       </c>
@@ -35175,7 +35223,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>79</v>
       </c>
@@ -35201,7 +35249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>79</v>
       </c>
@@ -35227,7 +35275,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>79</v>
       </c>
@@ -35253,7 +35301,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>79</v>
       </c>
@@ -35279,7 +35327,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>79</v>
       </c>
@@ -35305,7 +35353,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>79</v>
       </c>
@@ -35331,7 +35379,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>79</v>
       </c>
@@ -35357,7 +35405,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>79</v>
       </c>
@@ -35383,7 +35431,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>79</v>
       </c>
@@ -35409,7 +35457,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>79</v>
       </c>
@@ -35435,7 +35483,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>79</v>
       </c>
@@ -35461,7 +35509,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>79</v>
       </c>
@@ -35487,7 +35535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>79</v>
       </c>
@@ -36621,7 +36669,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>298</v>
       </c>
@@ -36641,7 +36689,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>298</v>
       </c>
@@ -36661,7 +36709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>298</v>
       </c>
@@ -36681,7 +36729,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>298</v>
       </c>
@@ -36701,7 +36749,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>298</v>
       </c>
@@ -36721,7 +36769,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>298</v>
       </c>
@@ -36741,7 +36789,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>298</v>
       </c>
@@ -36761,7 +36809,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>298</v>
       </c>
@@ -36781,7 +36829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>298</v>
       </c>
@@ -36801,7 +36849,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>298</v>
       </c>
@@ -36821,7 +36869,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>298</v>
       </c>
@@ -36841,7 +36889,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>298</v>
       </c>
@@ -36861,7 +36909,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>298</v>
       </c>
@@ -36881,7 +36929,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>298</v>
       </c>
@@ -36901,7 +36949,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>298</v>
       </c>
@@ -36921,7 +36969,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>298</v>
       </c>
@@ -36941,7 +36989,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>298</v>
       </c>
@@ -36961,7 +37009,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>298</v>
       </c>
@@ -36981,7 +37029,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>298</v>
       </c>
@@ -37001,7 +37049,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>298</v>
       </c>
@@ -37021,7 +37069,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>298</v>
       </c>
@@ -37041,7 +37089,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>298</v>
       </c>
@@ -37061,7 +37109,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>298</v>
       </c>
@@ -37081,7 +37129,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>298</v>
       </c>
@@ -37101,7 +37149,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>298</v>
       </c>
@@ -37121,7 +37169,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>298</v>
       </c>
@@ -37141,7 +37189,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>79</v>
       </c>
@@ -37167,7 +37215,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>79</v>
       </c>
@@ -37193,7 +37241,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>79</v>
       </c>
@@ -37219,7 +37267,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>79</v>
       </c>
@@ -37245,7 +37293,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>79</v>
       </c>
@@ -37271,7 +37319,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>79</v>
       </c>
@@ -37297,7 +37345,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>79</v>
       </c>
@@ -37323,7 +37371,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>79</v>
       </c>
@@ -37349,7 +37397,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>79</v>
       </c>
@@ -37375,7 +37423,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>79</v>
       </c>
@@ -37401,7 +37449,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>79</v>
       </c>
@@ -37427,7 +37475,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>79</v>
       </c>
@@ -37453,7 +37501,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>79</v>
       </c>
@@ -37479,7 +37527,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>79</v>
       </c>
@@ -37505,7 +37553,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>79</v>
       </c>
@@ -37531,7 +37579,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>79</v>
       </c>
@@ -37557,7 +37605,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>79</v>
       </c>
@@ -37583,7 +37631,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>79</v>
       </c>
@@ -37609,7 +37657,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>79</v>
       </c>
@@ -37638,7 +37686,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>79</v>
       </c>
@@ -37664,7 +37712,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>79</v>
       </c>
@@ -37690,7 +37738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>79</v>
       </c>
@@ -37710,7 +37758,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>79</v>
       </c>
@@ -37736,7 +37784,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>79</v>
       </c>
@@ -37762,7 +37810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>79</v>
       </c>
@@ -37788,7 +37836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>79</v>
       </c>
@@ -37814,7 +37862,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>79</v>
       </c>
@@ -37840,7 +37888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>79</v>
       </c>
@@ -37866,7 +37914,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>79</v>
       </c>
@@ -37895,7 +37943,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>79</v>
       </c>
@@ -37921,7 +37969,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>79</v>
       </c>
@@ -37947,7 +37995,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>79</v>
       </c>
@@ -37973,7 +38021,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>79</v>
       </c>
@@ -38002,7 +38050,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>79</v>
       </c>
@@ -38028,7 +38076,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>79</v>
       </c>
@@ -38054,7 +38102,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>79</v>
       </c>
@@ -38083,7 +38131,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>79</v>
       </c>
@@ -38109,7 +38157,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>79</v>
       </c>
@@ -38135,7 +38183,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>79</v>
       </c>
@@ -38161,7 +38209,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>79</v>
       </c>
@@ -38187,7 +38235,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>79</v>
       </c>
@@ -38213,7 +38261,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>79</v>
       </c>
@@ -38239,7 +38287,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>79</v>
       </c>
@@ -38265,7 +38313,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>79</v>
       </c>
@@ -38291,7 +38339,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>79</v>
       </c>
@@ -38317,7 +38365,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>79</v>
       </c>
@@ -38343,7 +38391,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>79</v>
       </c>
@@ -38369,7 +38417,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>79</v>
       </c>
@@ -38395,7 +38443,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>79</v>
       </c>
@@ -38421,7 +38469,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>79</v>
       </c>
@@ -38447,7 +38495,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>79</v>
       </c>
@@ -38476,7 +38524,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>79</v>
       </c>
@@ -38502,7 +38550,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>79</v>
       </c>
@@ -38528,7 +38576,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>79</v>
       </c>
@@ -38554,7 +38602,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>79</v>
       </c>
@@ -38580,7 +38628,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>79</v>
       </c>
@@ -38606,7 +38654,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>79</v>
       </c>
@@ -38632,7 +38680,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>79</v>
       </c>
@@ -38658,7 +38706,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>79</v>
       </c>
@@ -38684,7 +38732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>79</v>
       </c>
@@ -38710,7 +38758,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>79</v>
       </c>
@@ -38736,7 +38784,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>79</v>
       </c>
@@ -38762,7 +38810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>79</v>
       </c>
@@ -38788,7 +38836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>79</v>
       </c>
@@ -38814,7 +38862,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>79</v>
       </c>
@@ -38840,7 +38888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>79</v>
       </c>
@@ -38866,7 +38914,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>79</v>
       </c>
@@ -38892,7 +38940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>79</v>
       </c>
@@ -38918,7 +38966,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>79</v>
       </c>
@@ -38944,7 +38992,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>79</v>
       </c>
@@ -38970,7 +39018,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>79</v>
       </c>
@@ -38996,7 +39044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>79</v>
       </c>
@@ -39022,7 +39070,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>79</v>
       </c>
@@ -39048,7 +39096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>79</v>
       </c>
@@ -39074,7 +39122,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>79</v>
       </c>
@@ -39100,7 +39148,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>79</v>
       </c>
@@ -39126,7 +39174,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>79</v>
       </c>
@@ -39152,7 +39200,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>79</v>
       </c>
@@ -39178,7 +39226,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>79</v>
       </c>
@@ -39204,7 +39252,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>79</v>
       </c>
@@ -39230,7 +39278,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>79</v>
       </c>
@@ -39256,7 +39304,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>79</v>
       </c>
@@ -39282,7 +39330,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>79</v>
       </c>
@@ -39308,7 +39356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>79</v>
       </c>
@@ -39334,7 +39382,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>79</v>
       </c>
@@ -39360,7 +39408,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>79</v>
       </c>
@@ -39386,7 +39434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>79</v>
       </c>
@@ -39412,7 +39460,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>79</v>
       </c>
@@ -39438,7 +39486,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>79</v>
       </c>
@@ -39464,7 +39512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>79</v>
       </c>
@@ -39490,7 +39538,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>79</v>
       </c>
@@ -39516,7 +39564,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>79</v>
       </c>
@@ -39542,7 +39590,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>79</v>
       </c>
@@ -39568,7 +39616,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>79</v>
       </c>
@@ -39594,7 +39642,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>79</v>
       </c>
@@ -39620,7 +39668,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>79</v>
       </c>
@@ -39646,7 +39694,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>79</v>
       </c>
@@ -39672,7 +39720,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>79</v>
       </c>
@@ -39698,7 +39746,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>79</v>
       </c>
@@ -39724,7 +39772,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>79</v>
       </c>
@@ -39750,7 +39798,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>79</v>
       </c>
@@ -39776,7 +39824,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>79</v>
       </c>
@@ -39802,7 +39850,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>79</v>
       </c>
@@ -39828,7 +39876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>79</v>
       </c>
@@ -39854,7 +39902,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>79</v>
       </c>
@@ -39880,7 +39928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>79</v>
       </c>
@@ -39906,7 +39954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>79</v>
       </c>
@@ -39932,7 +39980,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>79</v>
       </c>
@@ -39958,7 +40006,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>79</v>
       </c>
@@ -39984,7 +40032,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>79</v>
       </c>
@@ -40010,7 +40058,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>79</v>
       </c>
@@ -40036,7 +40084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>79</v>
       </c>
@@ -40062,7 +40110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>79</v>
       </c>
@@ -40088,7 +40136,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>79</v>
       </c>
@@ -40114,7 +40162,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>79</v>
       </c>
@@ -40140,7 +40188,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>79</v>
       </c>
@@ -40166,7 +40214,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>79</v>
       </c>
@@ -40192,7 +40240,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>79</v>
       </c>
@@ -40218,7 +40266,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>79</v>
       </c>
@@ -40244,7 +40292,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>79</v>
       </c>
@@ -40270,7 +40318,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>79</v>
       </c>
@@ -40296,7 +40344,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>79</v>
       </c>
@@ -40322,7 +40370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>79</v>
       </c>
@@ -40348,7 +40396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>79</v>
       </c>
@@ -40374,7 +40422,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>79</v>
       </c>
@@ -40400,7 +40448,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>79</v>
       </c>
@@ -40429,7 +40477,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>79</v>
       </c>
@@ -40455,7 +40503,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>79</v>
       </c>
@@ -40481,7 +40529,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>79</v>
       </c>
@@ -40507,7 +40555,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>79</v>
       </c>
@@ -40533,7 +40581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>79</v>
       </c>
@@ -40559,7 +40607,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>79</v>
       </c>
@@ -40585,7 +40633,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>79</v>
       </c>
@@ -40611,7 +40659,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>79</v>
       </c>
@@ -40637,7 +40685,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>79</v>
       </c>
@@ -40663,7 +40711,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>79</v>
       </c>
@@ -40689,7 +40737,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>79</v>
       </c>
@@ -40715,7 +40763,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>79</v>
       </c>
@@ -40741,7 +40789,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>79</v>
       </c>
@@ -40767,7 +40815,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>79</v>
       </c>
@@ -40793,7 +40841,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>79</v>
       </c>
@@ -40819,7 +40867,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>79</v>
       </c>
@@ -40845,7 +40893,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>79</v>
       </c>
@@ -40871,7 +40919,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>79</v>
       </c>
@@ -40897,7 +40945,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>79</v>
       </c>
@@ -40923,7 +40971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>79</v>
       </c>
@@ -40949,7 +40997,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>79</v>
       </c>
@@ -40975,7 +41023,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>79</v>
       </c>
@@ -41001,7 +41049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>79</v>
       </c>
@@ -41027,7 +41075,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>79</v>
       </c>
@@ -41053,7 +41101,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>79</v>
       </c>
@@ -41079,7 +41127,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>79</v>
       </c>
@@ -41105,7 +41153,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>79</v>
       </c>
@@ -41131,7 +41179,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>79</v>
       </c>
@@ -41157,7 +41205,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>79</v>
       </c>
@@ -41183,7 +41231,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>79</v>
       </c>
@@ -41209,7 +41257,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>79</v>
       </c>
@@ -41235,7 +41283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>79</v>
       </c>
@@ -41261,7 +41309,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>79</v>
       </c>
@@ -41287,7 +41335,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>79</v>
       </c>
@@ -41313,7 +41361,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>79</v>
       </c>
@@ -41339,7 +41387,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>79</v>
       </c>
@@ -41365,7 +41413,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>79</v>
       </c>
@@ -41391,7 +41439,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>79</v>
       </c>
@@ -41417,7 +41465,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>79</v>
       </c>
@@ -41443,7 +41491,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>79</v>
       </c>
@@ -41469,7 +41517,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>79</v>
       </c>
@@ -41495,7 +41543,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>79</v>
       </c>
@@ -41521,7 +41569,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>79</v>
       </c>
@@ -41547,7 +41595,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>79</v>
       </c>
@@ -41573,7 +41621,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>79</v>
       </c>
@@ -41599,7 +41647,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>79</v>
       </c>
@@ -41625,7 +41673,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>79</v>
       </c>
@@ -41651,7 +41699,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>79</v>
       </c>
@@ -41677,7 +41725,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>79</v>
       </c>
@@ -41703,7 +41751,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>79</v>
       </c>
@@ -41729,7 +41777,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>79</v>
       </c>
@@ -41755,7 +41803,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>79</v>
       </c>
@@ -41781,7 +41829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>79</v>
       </c>
@@ -41807,7 +41855,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>79</v>
       </c>
@@ -41833,7 +41881,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>79</v>
       </c>
@@ -41859,7 +41907,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>79</v>
       </c>
@@ -41885,7 +41933,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>79</v>
       </c>
@@ -41911,7 +41959,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>79</v>
       </c>
@@ -41937,7 +41985,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>79</v>
       </c>
@@ -41963,7 +42011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>79</v>
       </c>
@@ -41989,7 +42037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>79</v>
       </c>
@@ -42015,7 +42063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>79</v>
       </c>
@@ -42041,7 +42089,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>79</v>
       </c>
@@ -42067,7 +42115,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>79</v>
       </c>
@@ -42093,7 +42141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>79</v>
       </c>
@@ -42119,7 +42167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>79</v>
       </c>
@@ -42145,7 +42193,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>79</v>
       </c>
@@ -42171,7 +42219,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>79</v>
       </c>
@@ -42197,7 +42245,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>79</v>
       </c>
@@ -42223,7 +42271,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>79</v>
       </c>
@@ -42249,7 +42297,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>79</v>
       </c>
@@ -42275,7 +42323,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>79</v>
       </c>
@@ -42301,7 +42349,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>79</v>
       </c>
@@ -42327,7 +42375,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>79</v>
       </c>
@@ -42353,7 +42401,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>79</v>
       </c>
@@ -42379,7 +42427,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>79</v>
       </c>
@@ -42405,7 +42453,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>79</v>
       </c>
@@ -42431,7 +42479,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>79</v>
       </c>
@@ -42457,7 +42505,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>79</v>
       </c>
@@ -42483,7 +42531,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>79</v>
       </c>
@@ -42509,7 +42557,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>79</v>
       </c>
@@ -42535,7 +42583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>79</v>
       </c>
@@ -42639,7 +42687,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="769" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>204</v>
       </c>
@@ -42665,7 +42713,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="770" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>204</v>
       </c>
@@ -42691,7 +42739,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="771" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>204</v>
       </c>
@@ -42717,7 +42765,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="772" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>204</v>
       </c>
@@ -42741,13 +42789,390 @@
       </c>
       <c r="H772" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A773" t="s">
+        <v>298</v>
+      </c>
+      <c r="B773" s="1">
+        <v>44697</v>
+      </c>
+      <c r="C773">
+        <v>1</v>
+      </c>
+      <c r="D773" t="s">
+        <v>80</v>
+      </c>
+      <c r="E773">
+        <v>59.3</v>
+      </c>
+      <c r="F773" t="s">
+        <v>81</v>
+      </c>
+      <c r="G773">
+        <v>10.73</v>
+      </c>
+      <c r="H773" t="s">
+        <v>35</v>
+      </c>
+      <c r="I773" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A774" t="s">
+        <v>298</v>
+      </c>
+      <c r="B774" s="1">
+        <v>44697</v>
+      </c>
+      <c r="C774">
+        <v>5</v>
+      </c>
+      <c r="D774" t="s">
+        <v>80</v>
+      </c>
+      <c r="E774">
+        <v>58</v>
+      </c>
+      <c r="F774" t="s">
+        <v>81</v>
+      </c>
+      <c r="G774">
+        <v>10.92</v>
+      </c>
+      <c r="H774" t="s">
+        <v>35</v>
+      </c>
+      <c r="I774">
+        <v>111.2</v>
+      </c>
+    </row>
+    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A775" t="s">
+        <v>298</v>
+      </c>
+      <c r="B775" s="1">
+        <v>44697</v>
+      </c>
+      <c r="C775">
+        <v>7</v>
+      </c>
+      <c r="D775" t="s">
+        <v>80</v>
+      </c>
+      <c r="E775">
+        <v>57.8</v>
+      </c>
+      <c r="F775" t="s">
+        <v>81</v>
+      </c>
+      <c r="G775">
+        <v>10.95</v>
+      </c>
+      <c r="H775" t="s">
+        <v>35</v>
+      </c>
+      <c r="I775">
+        <v>111.3</v>
+      </c>
+    </row>
+    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A776" t="s">
+        <v>298</v>
+      </c>
+      <c r="B776" s="1">
+        <v>44697</v>
+      </c>
+      <c r="C776">
+        <v>10</v>
+      </c>
+      <c r="D776" t="s">
+        <v>80</v>
+      </c>
+      <c r="E776">
+        <v>50.2</v>
+      </c>
+      <c r="F776" t="s">
+        <v>81</v>
+      </c>
+      <c r="G776">
+        <v>13.03</v>
+      </c>
+      <c r="H776" t="s">
+        <v>35</v>
+      </c>
+      <c r="I776">
+        <v>120.3</v>
+      </c>
+    </row>
+    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A777" t="s">
+        <v>298</v>
+      </c>
+      <c r="B777" s="1">
+        <v>44697</v>
+      </c>
+      <c r="C777">
+        <v>12</v>
+      </c>
+      <c r="D777" t="s">
+        <v>80</v>
+      </c>
+      <c r="E777">
+        <v>48.3</v>
+      </c>
+      <c r="F777" t="s">
+        <v>81</v>
+      </c>
+      <c r="G777">
+        <v>13.3</v>
+      </c>
+      <c r="H777" t="s">
+        <v>35</v>
+      </c>
+      <c r="I777">
+        <v>119.7</v>
+      </c>
+    </row>
+    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A778" t="s">
+        <v>298</v>
+      </c>
+      <c r="B778" s="1">
+        <v>44697</v>
+      </c>
+      <c r="C778">
+        <v>15</v>
+      </c>
+      <c r="D778" t="s">
+        <v>80</v>
+      </c>
+      <c r="E778">
+        <v>45.4</v>
+      </c>
+      <c r="F778" t="s">
+        <v>81</v>
+      </c>
+      <c r="G778">
+        <v>12.54</v>
+      </c>
+      <c r="H778" t="s">
+        <v>35</v>
+      </c>
+      <c r="I778">
+        <v>108.6</v>
+      </c>
+    </row>
+    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A779" t="s">
+        <v>298</v>
+      </c>
+      <c r="B779" s="1">
+        <v>44697</v>
+      </c>
+      <c r="C779">
+        <v>17</v>
+      </c>
+      <c r="D779" t="s">
+        <v>80</v>
+      </c>
+      <c r="E779">
+        <v>43.5</v>
+      </c>
+      <c r="F779" t="s">
+        <v>81</v>
+      </c>
+      <c r="G779">
+        <v>10.09</v>
+      </c>
+      <c r="H779" t="s">
+        <v>35</v>
+      </c>
+      <c r="I779">
+        <v>85.1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A780" t="s">
+        <v>298</v>
+      </c>
+      <c r="B780" s="1">
+        <v>44697</v>
+      </c>
+      <c r="C780">
+        <v>20</v>
+      </c>
+      <c r="D780" t="s">
+        <v>80</v>
+      </c>
+      <c r="E780">
+        <v>42.3</v>
+      </c>
+      <c r="F780" t="s">
+        <v>81</v>
+      </c>
+      <c r="G780">
+        <v>8.09</v>
+      </c>
+      <c r="H780" t="s">
+        <v>35</v>
+      </c>
+      <c r="I780">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A781" t="s">
+        <v>298</v>
+      </c>
+      <c r="B781" s="1">
+        <v>44697</v>
+      </c>
+      <c r="C781">
+        <v>25</v>
+      </c>
+      <c r="D781" t="s">
+        <v>80</v>
+      </c>
+      <c r="E781">
+        <v>41.5</v>
+      </c>
+      <c r="F781" t="s">
+        <v>81</v>
+      </c>
+      <c r="G781">
+        <v>6.62</v>
+      </c>
+      <c r="H781" t="s">
+        <v>35</v>
+      </c>
+      <c r="I781">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A782" t="s">
+        <v>298</v>
+      </c>
+      <c r="B782" s="1">
+        <v>44697</v>
+      </c>
+      <c r="C782">
+        <v>30</v>
+      </c>
+      <c r="D782" t="s">
+        <v>80</v>
+      </c>
+      <c r="E782">
+        <v>41.1</v>
+      </c>
+      <c r="F782" t="s">
+        <v>81</v>
+      </c>
+      <c r="G782">
+        <v>6.04</v>
+      </c>
+      <c r="H782" t="s">
+        <v>35</v>
+      </c>
+      <c r="I782">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A783" t="s">
+        <v>298</v>
+      </c>
+      <c r="B783" s="1">
+        <v>44697</v>
+      </c>
+      <c r="C783">
+        <v>35</v>
+      </c>
+      <c r="D783" t="s">
+        <v>80</v>
+      </c>
+      <c r="E783">
+        <v>40.9</v>
+      </c>
+      <c r="F783" t="s">
+        <v>81</v>
+      </c>
+      <c r="G783">
+        <v>5.47</v>
+      </c>
+      <c r="H783" t="s">
+        <v>35</v>
+      </c>
+      <c r="I783">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A784" t="s">
+        <v>298</v>
+      </c>
+      <c r="B784" s="1">
+        <v>44697</v>
+      </c>
+      <c r="C784">
+        <v>40</v>
+      </c>
+      <c r="D784" t="s">
+        <v>80</v>
+      </c>
+      <c r="E784">
+        <v>40.5</v>
+      </c>
+      <c r="F784" t="s">
+        <v>81</v>
+      </c>
+      <c r="G784">
+        <v>5.15</v>
+      </c>
+      <c r="H784" t="s">
+        <v>35</v>
+      </c>
+      <c r="I784">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A785" t="s">
+        <v>298</v>
+      </c>
+      <c r="B785" s="1">
+        <v>44697</v>
+      </c>
+      <c r="C785">
+        <v>45</v>
+      </c>
+      <c r="D785" t="s">
+        <v>80</v>
+      </c>
+      <c r="E785">
+        <v>40.4</v>
+      </c>
+      <c r="F785" t="s">
+        <v>81</v>
+      </c>
+      <c r="G785">
+        <v>4.87</v>
+      </c>
+      <c r="H785" t="s">
+        <v>35</v>
+      </c>
+      <c r="I785">
+        <v>39.299999999999997</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I772">
     <filterColumn colId="0">
       <filters>
-        <filter val="Eagle Lake"/>
+        <filter val="Twin Bear Lake"/>
       </filters>
     </filterColumn>
     <sortState ref="A10:I765">
@@ -42760,11 +43185,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C419"/>
+  <dimension ref="A1:C420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C420" sqref="C420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47347,6 +47772,17 @@
         <v>465</v>
       </c>
     </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>298</v>
+      </c>
+      <c r="B420" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C420" t="s">
+        <v>478</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47354,11 +47790,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D632"/>
+  <dimension ref="A1:D633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D629" sqref="D629"/>
+      <pane ySplit="1" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A633" sqref="A633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56217,6 +56653,17 @@
         <v>198</v>
       </c>
     </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
+        <v>298</v>
+      </c>
+      <c r="B633" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C633" t="s">
+        <v>479</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portfolio/posts/_data/Pike_Chain_WQ_Data.xlsx
+++ b/portfolio/posts/_data/Pike_Chain_WQ_Data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9162" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9238" uniqueCount="483">
   <si>
     <t>Buskey Bay</t>
   </si>
@@ -1470,6 +1470,12 @@
   <si>
     <t>111.1% O2 Saturation</t>
   </si>
+  <si>
+    <t>Entered Eagle (from Gary) and Twin Bear (from me) data for May-23</t>
+  </si>
+  <si>
+    <t>63 deg F, Calm and hazy, but bright; 12 days ice free</t>
+  </si>
 </sst>
 </file>
 
@@ -2278,14 +2284,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
@@ -2301,6 +2311,14 @@
       </c>
       <c r="B2" t="s">
         <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45006</v>
+      </c>
+      <c r="B3" t="s">
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -2310,11 +2328,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q621"/>
+  <dimension ref="A1:Q622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A566" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F584" sqref="F584"/>
+      <pane ySplit="1" topLeftCell="A582" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q619" sqref="Q619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23413,31 +23431,29 @@
     </row>
     <row r="619" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="B619">
         <v>132253999</v>
       </c>
       <c r="C619" s="1">
-        <v>44385</v>
+        <v>45062</v>
       </c>
       <c r="D619">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E619" t="s">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="F619">
-        <v>2.4</v>
-      </c>
-      <c r="I619">
-        <v>47</v>
+        <f>ROUND(D619*0.3048,1)</f>
+        <v>3</v>
       </c>
       <c r="L619" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N619" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O619" t="s">
         <v>19</v>
@@ -23454,10 +23470,13 @@
         <v>132253999</v>
       </c>
       <c r="C620" s="1">
-        <v>44396</v>
+        <v>44385</v>
       </c>
       <c r="D620">
         <v>8</v>
+      </c>
+      <c r="E620" t="s">
+        <v>202</v>
       </c>
       <c r="F620">
         <v>2.4</v>
@@ -23486,14 +23505,11 @@
         <v>132253999</v>
       </c>
       <c r="C621" s="1">
-        <v>44438</v>
+        <v>44396</v>
       </c>
       <c r="D621">
         <v>8</v>
       </c>
-      <c r="E621" t="s">
-        <v>202</v>
-      </c>
       <c r="F621">
         <v>2.4</v>
       </c>
@@ -23510,6 +23526,41 @@
         <v>19</v>
       </c>
       <c r="P621" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="622" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>204</v>
+      </c>
+      <c r="B622">
+        <v>132253999</v>
+      </c>
+      <c r="C622" s="1">
+        <v>44438</v>
+      </c>
+      <c r="D622">
+        <v>8</v>
+      </c>
+      <c r="E622" t="s">
+        <v>202</v>
+      </c>
+      <c r="F622">
+        <v>2.4</v>
+      </c>
+      <c r="I622">
+        <v>47</v>
+      </c>
+      <c r="L622" t="s">
+        <v>21</v>
+      </c>
+      <c r="N622" t="s">
+        <v>25</v>
+      </c>
+      <c r="O622" t="s">
+        <v>19</v>
+      </c>
+      <c r="P622" t="s">
         <v>20</v>
       </c>
     </row>
@@ -23521,12 +23572,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I785"/>
+  <dimension ref="A1:I801"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A532" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I775" sqref="I775"/>
+      <pane ySplit="1" topLeftCell="A762" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E795" sqref="E795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23570,7 +23620,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -23590,7 +23640,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -23610,7 +23660,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -23630,7 +23680,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -23650,7 +23700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -23670,7 +23720,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -23690,7 +23740,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -23710,7 +23760,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -23730,7 +23780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -23756,7 +23806,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -23782,7 +23832,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -23808,7 +23858,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -23834,7 +23884,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -23860,7 +23910,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -23886,7 +23936,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -23912,7 +23962,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -23938,7 +23988,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -23964,7 +24014,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -23990,7 +24040,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -24010,7 +24060,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -24030,7 +24080,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -24050,7 +24100,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -24070,7 +24120,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -24090,7 +24140,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -24110,7 +24160,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -24130,7 +24180,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -24150,7 +24200,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -24176,7 +24226,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -24202,7 +24252,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -24228,7 +24278,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -24254,7 +24304,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -24280,7 +24330,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -24306,7 +24356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -24332,7 +24382,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -24358,7 +24408,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -24384,7 +24434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -24410,7 +24460,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -24436,7 +24486,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -24462,7 +24512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -24488,7 +24538,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -24514,7 +24564,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -24540,7 +24590,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -24566,7 +24616,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -24592,7 +24642,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -24618,7 +24668,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -24644,7 +24694,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>79</v>
       </c>
@@ -24670,7 +24720,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -24696,7 +24746,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>79</v>
       </c>
@@ -24722,7 +24772,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -24748,7 +24798,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>79</v>
       </c>
@@ -24774,7 +24824,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -24800,7 +24850,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -24826,7 +24876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -24852,7 +24902,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>79</v>
       </c>
@@ -24878,7 +24928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -24904,7 +24954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -24930,7 +24980,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -24956,7 +25006,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -24982,7 +25032,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -25008,7 +25058,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -25034,7 +25084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -25060,7 +25110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -25086,7 +25136,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -25112,7 +25162,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -25138,7 +25188,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -25164,7 +25214,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -25190,7 +25240,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -25216,7 +25266,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>79</v>
       </c>
@@ -25242,7 +25292,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -25268,7 +25318,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -25294,7 +25344,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -25320,7 +25370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -25346,7 +25396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -25372,7 +25422,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -25398,7 +25448,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -25424,7 +25474,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -25450,7 +25500,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -25476,7 +25526,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -25502,7 +25552,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -25528,7 +25578,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -25554,7 +25604,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -25580,7 +25630,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -25606,7 +25656,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>79</v>
       </c>
@@ -25632,7 +25682,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -25658,7 +25708,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>79</v>
       </c>
@@ -25684,7 +25734,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>79</v>
       </c>
@@ -25710,7 +25760,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>79</v>
       </c>
@@ -25736,7 +25786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>79</v>
       </c>
@@ -25762,7 +25812,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>79</v>
       </c>
@@ -25788,7 +25838,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>79</v>
       </c>
@@ -25814,7 +25864,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -25840,7 +25890,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>79</v>
       </c>
@@ -25866,7 +25916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>79</v>
       </c>
@@ -25892,7 +25942,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>79</v>
       </c>
@@ -25918,7 +25968,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>79</v>
       </c>
@@ -25944,7 +25994,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>79</v>
       </c>
@@ -25970,7 +26020,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>79</v>
       </c>
@@ -25996,7 +26046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>79</v>
       </c>
@@ -26022,7 +26072,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>79</v>
       </c>
@@ -26048,7 +26098,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>79</v>
       </c>
@@ -26074,7 +26124,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>79</v>
       </c>
@@ -26100,7 +26150,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>79</v>
       </c>
@@ -26126,7 +26176,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>79</v>
       </c>
@@ -26152,7 +26202,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>79</v>
       </c>
@@ -26178,7 +26228,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>79</v>
       </c>
@@ -26204,7 +26254,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>79</v>
       </c>
@@ -26230,7 +26280,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>79</v>
       </c>
@@ -26256,7 +26306,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>79</v>
       </c>
@@ -26282,7 +26332,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>79</v>
       </c>
@@ -26308,7 +26358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>79</v>
       </c>
@@ -26334,7 +26384,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>79</v>
       </c>
@@ -26360,7 +26410,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>79</v>
       </c>
@@ -26386,7 +26436,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>79</v>
       </c>
@@ -26412,7 +26462,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>79</v>
       </c>
@@ -26438,7 +26488,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>79</v>
       </c>
@@ -26464,7 +26514,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>79</v>
       </c>
@@ -26490,7 +26540,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>79</v>
       </c>
@@ -26516,7 +26566,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>79</v>
       </c>
@@ -26542,7 +26592,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>79</v>
       </c>
@@ -26568,7 +26618,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>79</v>
       </c>
@@ -26594,7 +26644,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>79</v>
       </c>
@@ -26620,7 +26670,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>79</v>
       </c>
@@ -26646,7 +26696,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>79</v>
       </c>
@@ -26672,7 +26722,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>79</v>
       </c>
@@ -26698,7 +26748,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>79</v>
       </c>
@@ -26724,7 +26774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>79</v>
       </c>
@@ -26750,7 +26800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>79</v>
       </c>
@@ -26776,7 +26826,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>79</v>
       </c>
@@ -26802,7 +26852,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>79</v>
       </c>
@@ -26828,7 +26878,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>79</v>
       </c>
@@ -26854,7 +26904,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>79</v>
       </c>
@@ -26880,7 +26930,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>79</v>
       </c>
@@ -26906,7 +26956,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>79</v>
       </c>
@@ -26932,7 +26982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>79</v>
       </c>
@@ -26958,7 +27008,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>79</v>
       </c>
@@ -26984,7 +27034,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>79</v>
       </c>
@@ -27010,7 +27060,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>79</v>
       </c>
@@ -27036,7 +27086,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>79</v>
       </c>
@@ -27062,7 +27112,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>79</v>
       </c>
@@ -27088,7 +27138,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>79</v>
       </c>
@@ -27114,7 +27164,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>79</v>
       </c>
@@ -27140,7 +27190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>79</v>
       </c>
@@ -27166,7 +27216,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>79</v>
       </c>
@@ -27192,7 +27242,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>79</v>
       </c>
@@ -27218,7 +27268,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>79</v>
       </c>
@@ -27244,7 +27294,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>79</v>
       </c>
@@ -27270,7 +27320,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>79</v>
       </c>
@@ -27296,7 +27346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>79</v>
       </c>
@@ -27322,7 +27372,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>79</v>
       </c>
@@ -27348,7 +27398,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>79</v>
       </c>
@@ -27374,7 +27424,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>79</v>
       </c>
@@ -27400,7 +27450,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>79</v>
       </c>
@@ -27426,7 +27476,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>79</v>
       </c>
@@ -27452,7 +27502,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>79</v>
       </c>
@@ -27478,7 +27528,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>79</v>
       </c>
@@ -27504,7 +27554,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>79</v>
       </c>
@@ -27530,7 +27580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>79</v>
       </c>
@@ -27556,7 +27606,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>79</v>
       </c>
@@ -27582,7 +27632,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>79</v>
       </c>
@@ -27608,7 +27658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>79</v>
       </c>
@@ -27634,7 +27684,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>79</v>
       </c>
@@ -27660,7 +27710,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>79</v>
       </c>
@@ -27686,7 +27736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>79</v>
       </c>
@@ -27712,7 +27762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>79</v>
       </c>
@@ -27738,7 +27788,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>79</v>
       </c>
@@ -27764,7 +27814,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>79</v>
       </c>
@@ -27790,7 +27840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>79</v>
       </c>
@@ -27816,7 +27866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>79</v>
       </c>
@@ -27842,7 +27892,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>79</v>
       </c>
@@ -27868,7 +27918,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>79</v>
       </c>
@@ -27894,7 +27944,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>79</v>
       </c>
@@ -27920,7 +27970,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>79</v>
       </c>
@@ -27946,7 +27996,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>79</v>
       </c>
@@ -27972,7 +28022,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>79</v>
       </c>
@@ -27998,7 +28048,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>79</v>
       </c>
@@ -28024,7 +28074,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>79</v>
       </c>
@@ -28050,7 +28100,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>79</v>
       </c>
@@ -28064,7 +28114,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>79</v>
       </c>
@@ -28078,7 +28128,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>79</v>
       </c>
@@ -28092,7 +28142,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>79</v>
       </c>
@@ -28106,7 +28156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>79</v>
       </c>
@@ -28120,7 +28170,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>79</v>
       </c>
@@ -28134,7 +28184,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>79</v>
       </c>
@@ -28148,7 +28198,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>79</v>
       </c>
@@ -28162,7 +28212,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>79</v>
       </c>
@@ -28188,7 +28238,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>79</v>
       </c>
@@ -28214,7 +28264,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>79</v>
       </c>
@@ -28240,7 +28290,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>79</v>
       </c>
@@ -28266,7 +28316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>79</v>
       </c>
@@ -28292,7 +28342,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>79</v>
       </c>
@@ -28318,7 +28368,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>79</v>
       </c>
@@ -28344,7 +28394,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>79</v>
       </c>
@@ -28370,7 +28420,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>79</v>
       </c>
@@ -28396,7 +28446,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>79</v>
       </c>
@@ -28422,7 +28472,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>79</v>
       </c>
@@ -28448,7 +28498,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>79</v>
       </c>
@@ -28474,7 +28524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>79</v>
       </c>
@@ -28500,7 +28550,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>79</v>
       </c>
@@ -28526,7 +28576,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>79</v>
       </c>
@@ -28552,7 +28602,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>79</v>
       </c>
@@ -28578,7 +28628,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>79</v>
       </c>
@@ -28604,7 +28654,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>79</v>
       </c>
@@ -28630,7 +28680,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>79</v>
       </c>
@@ -28656,7 +28706,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>79</v>
       </c>
@@ -28682,7 +28732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>79</v>
       </c>
@@ -28711,7 +28761,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>79</v>
       </c>
@@ -28737,7 +28787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>79</v>
       </c>
@@ -28763,7 +28813,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>79</v>
       </c>
@@ -28789,7 +28839,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>79</v>
       </c>
@@ -28815,7 +28865,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>79</v>
       </c>
@@ -28841,7 +28891,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>79</v>
       </c>
@@ -28867,7 +28917,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>79</v>
       </c>
@@ -28893,7 +28943,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>79</v>
       </c>
@@ -28919,7 +28969,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>79</v>
       </c>
@@ -28945,7 +28995,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>79</v>
       </c>
@@ -28971,7 +29021,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>79</v>
       </c>
@@ -28997,7 +29047,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>79</v>
       </c>
@@ -29023,7 +29073,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>79</v>
       </c>
@@ -29049,7 +29099,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>79</v>
       </c>
@@ -29075,7 +29125,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>79</v>
       </c>
@@ -29101,7 +29151,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>79</v>
       </c>
@@ -29127,7 +29177,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>79</v>
       </c>
@@ -29153,7 +29203,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>79</v>
       </c>
@@ -29179,7 +29229,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>79</v>
       </c>
@@ -29205,7 +29255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>79</v>
       </c>
@@ -29231,7 +29281,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>79</v>
       </c>
@@ -29257,7 +29307,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>79</v>
       </c>
@@ -29283,7 +29333,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>79</v>
       </c>
@@ -29309,7 +29359,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>79</v>
       </c>
@@ -29335,7 +29385,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>79</v>
       </c>
@@ -29361,7 +29411,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>79</v>
       </c>
@@ -29387,7 +29437,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>79</v>
       </c>
@@ -29413,7 +29463,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>79</v>
       </c>
@@ -29439,7 +29489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>79</v>
       </c>
@@ -29465,7 +29515,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>79</v>
       </c>
@@ -29491,7 +29541,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>79</v>
       </c>
@@ -29517,7 +29567,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>79</v>
       </c>
@@ -29543,7 +29593,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>79</v>
       </c>
@@ -29569,7 +29619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>79</v>
       </c>
@@ -29595,7 +29645,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>79</v>
       </c>
@@ -29621,7 +29671,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>79</v>
       </c>
@@ -29647,7 +29697,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>79</v>
       </c>
@@ -29673,7 +29723,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>79</v>
       </c>
@@ -29699,7 +29749,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>79</v>
       </c>
@@ -29725,7 +29775,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>79</v>
       </c>
@@ -29751,7 +29801,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>79</v>
       </c>
@@ -29777,7 +29827,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>79</v>
       </c>
@@ -29803,7 +29853,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>79</v>
       </c>
@@ -29829,7 +29879,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>79</v>
       </c>
@@ -29855,7 +29905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>79</v>
       </c>
@@ -29881,7 +29931,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>79</v>
       </c>
@@ -29907,7 +29957,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>79</v>
       </c>
@@ -29933,7 +29983,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>79</v>
       </c>
@@ -29959,7 +30009,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>79</v>
       </c>
@@ -29985,7 +30035,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>79</v>
       </c>
@@ -30011,7 +30061,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>79</v>
       </c>
@@ -30037,7 +30087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>79</v>
       </c>
@@ -30063,7 +30113,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>79</v>
       </c>
@@ -30089,7 +30139,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>79</v>
       </c>
@@ -30115,7 +30165,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>79</v>
       </c>
@@ -30141,7 +30191,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>79</v>
       </c>
@@ -30167,7 +30217,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>79</v>
       </c>
@@ -30193,7 +30243,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>79</v>
       </c>
@@ -30219,7 +30269,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>79</v>
       </c>
@@ -30245,7 +30295,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>79</v>
       </c>
@@ -30271,7 +30321,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>79</v>
       </c>
@@ -30297,7 +30347,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>79</v>
       </c>
@@ -30323,7 +30373,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>79</v>
       </c>
@@ -30349,7 +30399,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>79</v>
       </c>
@@ -30375,7 +30425,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>79</v>
       </c>
@@ -30401,7 +30451,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>79</v>
       </c>
@@ -30427,7 +30477,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>79</v>
       </c>
@@ -30453,7 +30503,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>79</v>
       </c>
@@ -30479,7 +30529,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>79</v>
       </c>
@@ -30505,7 +30555,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>79</v>
       </c>
@@ -30531,7 +30581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>79</v>
       </c>
@@ -30557,7 +30607,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>79</v>
       </c>
@@ -30583,7 +30633,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>79</v>
       </c>
@@ -30609,7 +30659,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>79</v>
       </c>
@@ -30635,7 +30685,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>79</v>
       </c>
@@ -30661,7 +30711,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>79</v>
       </c>
@@ -30687,7 +30737,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>79</v>
       </c>
@@ -30713,7 +30763,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>79</v>
       </c>
@@ -30739,7 +30789,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>79</v>
       </c>
@@ -30765,7 +30815,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>79</v>
       </c>
@@ -30791,7 +30841,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>79</v>
       </c>
@@ -30817,7 +30867,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>79</v>
       </c>
@@ -30843,7 +30893,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>79</v>
       </c>
@@ -30869,7 +30919,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>79</v>
       </c>
@@ -30895,7 +30945,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>79</v>
       </c>
@@ -30909,7 +30959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>79</v>
       </c>
@@ -30923,7 +30973,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>79</v>
       </c>
@@ -30937,7 +30987,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>79</v>
       </c>
@@ -30951,7 +31001,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>79</v>
       </c>
@@ -30965,7 +31015,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>79</v>
       </c>
@@ -30979,7 +31029,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>79</v>
       </c>
@@ -31005,7 +31055,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>79</v>
       </c>
@@ -31031,7 +31081,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>79</v>
       </c>
@@ -31057,7 +31107,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>79</v>
       </c>
@@ -31083,7 +31133,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>79</v>
       </c>
@@ -31109,7 +31159,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>79</v>
       </c>
@@ -31135,7 +31185,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>79</v>
       </c>
@@ -31161,7 +31211,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>79</v>
       </c>
@@ -31187,7 +31237,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>79</v>
       </c>
@@ -31213,7 +31263,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>79</v>
       </c>
@@ -31239,7 +31289,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>79</v>
       </c>
@@ -31265,7 +31315,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>79</v>
       </c>
@@ -31291,7 +31341,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>79</v>
       </c>
@@ -31317,7 +31367,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>79</v>
       </c>
@@ -31343,7 +31393,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>79</v>
       </c>
@@ -31357,7 +31407,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>79</v>
       </c>
@@ -31371,7 +31421,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>79</v>
       </c>
@@ -31397,7 +31447,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>79</v>
       </c>
@@ -31423,7 +31473,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>79</v>
       </c>
@@ -31449,7 +31499,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>79</v>
       </c>
@@ -31475,7 +31525,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>79</v>
       </c>
@@ -31501,7 +31551,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>79</v>
       </c>
@@ -31527,7 +31577,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>79</v>
       </c>
@@ -31553,7 +31603,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>79</v>
       </c>
@@ -31579,7 +31629,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>79</v>
       </c>
@@ -31605,7 +31655,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>79</v>
       </c>
@@ -31631,7 +31681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>79</v>
       </c>
@@ -31657,7 +31707,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>79</v>
       </c>
@@ -31683,7 +31733,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>79</v>
       </c>
@@ -31709,7 +31759,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>79</v>
       </c>
@@ -31735,7 +31785,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>79</v>
       </c>
@@ -31749,7 +31799,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>79</v>
       </c>
@@ -31775,7 +31825,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>79</v>
       </c>
@@ -31801,7 +31851,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>79</v>
       </c>
@@ -31827,7 +31877,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>79</v>
       </c>
@@ -31853,7 +31903,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>79</v>
       </c>
@@ -31879,7 +31929,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>79</v>
       </c>
@@ -31905,7 +31955,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>79</v>
       </c>
@@ -31931,7 +31981,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>79</v>
       </c>
@@ -31957,7 +32007,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>79</v>
       </c>
@@ -31983,7 +32033,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>79</v>
       </c>
@@ -32009,7 +32059,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>79</v>
       </c>
@@ -32035,7 +32085,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>79</v>
       </c>
@@ -32061,7 +32111,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>79</v>
       </c>
@@ -32087,7 +32137,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>79</v>
       </c>
@@ -32101,7 +32151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>79</v>
       </c>
@@ -32115,7 +32165,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>79</v>
       </c>
@@ -32141,7 +32191,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>79</v>
       </c>
@@ -32167,7 +32217,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>79</v>
       </c>
@@ -32193,7 +32243,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>79</v>
       </c>
@@ -32219,7 +32269,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>79</v>
       </c>
@@ -32245,7 +32295,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>79</v>
       </c>
@@ -32271,7 +32321,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>79</v>
       </c>
@@ -32297,7 +32347,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>79</v>
       </c>
@@ -32323,7 +32373,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>79</v>
       </c>
@@ -32349,7 +32399,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>79</v>
       </c>
@@ -32375,7 +32425,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>79</v>
       </c>
@@ -32401,7 +32451,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>79</v>
       </c>
@@ -32427,7 +32477,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>79</v>
       </c>
@@ -32453,7 +32503,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>79</v>
       </c>
@@ -32479,7 +32529,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>79</v>
       </c>
@@ -32505,7 +32555,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>79</v>
       </c>
@@ -32519,7 +32569,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>79</v>
       </c>
@@ -32545,7 +32595,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>79</v>
       </c>
@@ -32571,7 +32621,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>79</v>
       </c>
@@ -32597,7 +32647,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>79</v>
       </c>
@@ -32623,7 +32673,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>79</v>
       </c>
@@ -32649,7 +32699,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>79</v>
       </c>
@@ -32675,7 +32725,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>79</v>
       </c>
@@ -32701,7 +32751,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>79</v>
       </c>
@@ -32727,7 +32777,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>79</v>
       </c>
@@ -32753,7 +32803,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>79</v>
       </c>
@@ -32779,7 +32829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>79</v>
       </c>
@@ -32805,7 +32855,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>79</v>
       </c>
@@ -32831,7 +32881,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>79</v>
       </c>
@@ -32857,7 +32907,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>79</v>
       </c>
@@ -32883,7 +32933,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>79</v>
       </c>
@@ -32909,7 +32959,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>79</v>
       </c>
@@ -32935,7 +32985,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>79</v>
       </c>
@@ -32961,7 +33011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>79</v>
       </c>
@@ -32987,7 +33037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>79</v>
       </c>
@@ -33013,7 +33063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>79</v>
       </c>
@@ -33039,7 +33089,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>79</v>
       </c>
@@ -33065,7 +33115,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>79</v>
       </c>
@@ -33091,7 +33141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>79</v>
       </c>
@@ -33117,7 +33167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>79</v>
       </c>
@@ -33143,7 +33193,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>79</v>
       </c>
@@ -33169,7 +33219,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>79</v>
       </c>
@@ -33195,7 +33245,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>79</v>
       </c>
@@ -33221,7 +33271,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>79</v>
       </c>
@@ -33247,7 +33297,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>79</v>
       </c>
@@ -33273,7 +33323,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>79</v>
       </c>
@@ -33299,7 +33349,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>79</v>
       </c>
@@ -33325,7 +33375,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>79</v>
       </c>
@@ -33351,7 +33401,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>79</v>
       </c>
@@ -33377,7 +33427,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>79</v>
       </c>
@@ -33403,7 +33453,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>79</v>
       </c>
@@ -33429,7 +33479,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>79</v>
       </c>
@@ -33455,7 +33505,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>79</v>
       </c>
@@ -33481,7 +33531,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>79</v>
       </c>
@@ -33507,7 +33557,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>79</v>
       </c>
@@ -33533,7 +33583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>79</v>
       </c>
@@ -33559,7 +33609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>79</v>
       </c>
@@ -33585,7 +33635,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>79</v>
       </c>
@@ -33611,7 +33661,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>79</v>
       </c>
@@ -33637,7 +33687,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>79</v>
       </c>
@@ -33663,7 +33713,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>79</v>
       </c>
@@ -33689,7 +33739,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>79</v>
       </c>
@@ -33715,7 +33765,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>79</v>
       </c>
@@ -33741,7 +33791,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>79</v>
       </c>
@@ -33767,7 +33817,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>79</v>
       </c>
@@ -33793,7 +33843,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>79</v>
       </c>
@@ -33819,7 +33869,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>79</v>
       </c>
@@ -33845,7 +33895,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>79</v>
       </c>
@@ -33871,7 +33921,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>79</v>
       </c>
@@ -33897,7 +33947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>79</v>
       </c>
@@ -33923,7 +33973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>79</v>
       </c>
@@ -33949,7 +33999,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>79</v>
       </c>
@@ -33975,7 +34025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>79</v>
       </c>
@@ -34001,7 +34051,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>79</v>
       </c>
@@ -34027,7 +34077,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>79</v>
       </c>
@@ -34053,7 +34103,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>79</v>
       </c>
@@ -34079,7 +34129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>79</v>
       </c>
@@ -34105,7 +34155,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>79</v>
       </c>
@@ -34131,7 +34181,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>79</v>
       </c>
@@ -34157,7 +34207,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>79</v>
       </c>
@@ -34183,7 +34233,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>79</v>
       </c>
@@ -34209,7 +34259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>79</v>
       </c>
@@ -34235,7 +34285,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>79</v>
       </c>
@@ -34261,7 +34311,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>79</v>
       </c>
@@ -34287,7 +34337,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>79</v>
       </c>
@@ -34313,7 +34363,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>79</v>
       </c>
@@ -34339,7 +34389,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>79</v>
       </c>
@@ -34365,7 +34415,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>79</v>
       </c>
@@ -34391,7 +34441,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>79</v>
       </c>
@@ -34417,7 +34467,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>79</v>
       </c>
@@ -34443,7 +34493,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>79</v>
       </c>
@@ -34469,7 +34519,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>79</v>
       </c>
@@ -34495,7 +34545,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>79</v>
       </c>
@@ -34521,7 +34571,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>79</v>
       </c>
@@ -34547,7 +34597,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>79</v>
       </c>
@@ -34573,7 +34623,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>79</v>
       </c>
@@ -34599,7 +34649,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>79</v>
       </c>
@@ -34625,7 +34675,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>79</v>
       </c>
@@ -34651,7 +34701,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>79</v>
       </c>
@@ -34677,7 +34727,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>79</v>
       </c>
@@ -34703,7 +34753,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>79</v>
       </c>
@@ -34729,7 +34779,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>79</v>
       </c>
@@ -34755,7 +34805,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>79</v>
       </c>
@@ -34781,7 +34831,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>79</v>
       </c>
@@ -34807,7 +34857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>79</v>
       </c>
@@ -34833,7 +34883,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>79</v>
       </c>
@@ -34859,7 +34909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>79</v>
       </c>
@@ -34885,7 +34935,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>79</v>
       </c>
@@ -34911,7 +34961,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>79</v>
       </c>
@@ -34937,7 +34987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>79</v>
       </c>
@@ -34963,7 +35013,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>79</v>
       </c>
@@ -34989,7 +35039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>79</v>
       </c>
@@ -35015,7 +35065,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>79</v>
       </c>
@@ -35041,7 +35091,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>79</v>
       </c>
@@ -35067,7 +35117,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>79</v>
       </c>
@@ -35093,7 +35143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>79</v>
       </c>
@@ -35119,7 +35169,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>79</v>
       </c>
@@ -35145,7 +35195,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>79</v>
       </c>
@@ -35171,7 +35221,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>79</v>
       </c>
@@ -35197,7 +35247,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>79</v>
       </c>
@@ -35223,7 +35273,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>79</v>
       </c>
@@ -35249,7 +35299,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>79</v>
       </c>
@@ -35275,7 +35325,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>79</v>
       </c>
@@ -35301,7 +35351,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>79</v>
       </c>
@@ -35327,7 +35377,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>79</v>
       </c>
@@ -35353,7 +35403,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>79</v>
       </c>
@@ -35379,7 +35429,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>79</v>
       </c>
@@ -35405,7 +35455,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>79</v>
       </c>
@@ -35431,7 +35481,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>79</v>
       </c>
@@ -35457,7 +35507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>79</v>
       </c>
@@ -35483,7 +35533,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>79</v>
       </c>
@@ -35509,7 +35559,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>79</v>
       </c>
@@ -35535,7 +35585,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>79</v>
       </c>
@@ -35561,7 +35611,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>204</v>
       </c>
@@ -35581,7 +35631,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>204</v>
       </c>
@@ -35601,7 +35651,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>204</v>
       </c>
@@ -35621,7 +35671,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>204</v>
       </c>
@@ -35641,7 +35691,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>204</v>
       </c>
@@ -35661,7 +35711,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>204</v>
       </c>
@@ -35681,7 +35731,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>204</v>
       </c>
@@ -35695,7 +35745,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>204</v>
       </c>
@@ -35709,7 +35759,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>204</v>
       </c>
@@ -35723,7 +35773,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>204</v>
       </c>
@@ -35737,7 +35787,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>204</v>
       </c>
@@ -35751,7 +35801,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>204</v>
       </c>
@@ -35765,7 +35815,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>204</v>
       </c>
@@ -35779,7 +35829,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>204</v>
       </c>
@@ -35793,7 +35843,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>204</v>
       </c>
@@ -35807,7 +35857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>204</v>
       </c>
@@ -35821,7 +35871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>204</v>
       </c>
@@ -35835,7 +35885,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>204</v>
       </c>
@@ -35861,7 +35911,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>237</v>
       </c>
@@ -35881,7 +35931,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>237</v>
       </c>
@@ -35901,7 +35951,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>237</v>
       </c>
@@ -35921,7 +35971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>237</v>
       </c>
@@ -35941,7 +35991,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>237</v>
       </c>
@@ -35961,7 +36011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>237</v>
       </c>
@@ -35981,7 +36031,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>237</v>
       </c>
@@ -36001,7 +36051,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>237</v>
       </c>
@@ -36021,7 +36071,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>237</v>
       </c>
@@ -36047,7 +36097,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>237</v>
       </c>
@@ -36073,7 +36123,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>237</v>
       </c>
@@ -36099,7 +36149,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>237</v>
       </c>
@@ -36125,7 +36175,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>237</v>
       </c>
@@ -36151,7 +36201,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>237</v>
       </c>
@@ -36177,7 +36227,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>237</v>
       </c>
@@ -36203,7 +36253,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>237</v>
       </c>
@@ -36229,7 +36279,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>237</v>
       </c>
@@ -36255,7 +36305,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>237</v>
       </c>
@@ -36281,7 +36331,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>237</v>
       </c>
@@ -36307,7 +36357,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>237</v>
       </c>
@@ -36333,7 +36383,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>237</v>
       </c>
@@ -36359,7 +36409,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>237</v>
       </c>
@@ -36385,7 +36435,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>237</v>
       </c>
@@ -36411,7 +36461,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>237</v>
       </c>
@@ -36437,7 +36487,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>237</v>
       </c>
@@ -36451,7 +36501,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>237</v>
       </c>
@@ -36465,7 +36515,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>237</v>
       </c>
@@ -36479,7 +36529,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>237</v>
       </c>
@@ -36493,7 +36543,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>237</v>
       </c>
@@ -36507,7 +36557,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>237</v>
       </c>
@@ -36521,7 +36571,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>237</v>
       </c>
@@ -36535,7 +36585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>237</v>
       </c>
@@ -36549,7 +36599,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>263</v>
       </c>
@@ -36569,7 +36619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>263</v>
       </c>
@@ -36589,7 +36639,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>263</v>
       </c>
@@ -36609,7 +36659,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>263</v>
       </c>
@@ -36629,7 +36679,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>263</v>
       </c>
@@ -36649,7 +36699,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>263</v>
       </c>
@@ -37189,7 +37239,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>79</v>
       </c>
@@ -37215,7 +37265,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>79</v>
       </c>
@@ -37241,7 +37291,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>79</v>
       </c>
@@ -37267,7 +37317,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>79</v>
       </c>
@@ -37293,7 +37343,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>79</v>
       </c>
@@ -37319,7 +37369,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>79</v>
       </c>
@@ -37345,7 +37395,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>79</v>
       </c>
@@ -37371,7 +37421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>79</v>
       </c>
@@ -37397,7 +37447,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>79</v>
       </c>
@@ -37423,7 +37473,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>79</v>
       </c>
@@ -37449,7 +37499,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>79</v>
       </c>
@@ -37475,7 +37525,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>79</v>
       </c>
@@ -37501,7 +37551,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>79</v>
       </c>
@@ -37527,7 +37577,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>79</v>
       </c>
@@ -37553,7 +37603,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>79</v>
       </c>
@@ -37579,7 +37629,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>79</v>
       </c>
@@ -37605,7 +37655,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="574" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>79</v>
       </c>
@@ -37631,7 +37681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>79</v>
       </c>
@@ -37657,7 +37707,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>79</v>
       </c>
@@ -37686,7 +37736,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>79</v>
       </c>
@@ -37712,7 +37762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>79</v>
       </c>
@@ -37738,7 +37788,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>79</v>
       </c>
@@ -37758,7 +37808,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>79</v>
       </c>
@@ -37784,7 +37834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>79</v>
       </c>
@@ -37810,7 +37860,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>79</v>
       </c>
@@ -37836,7 +37886,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>79</v>
       </c>
@@ -37862,7 +37912,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="584" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>79</v>
       </c>
@@ -37888,7 +37938,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="585" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>79</v>
       </c>
@@ -37914,7 +37964,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>79</v>
       </c>
@@ -37943,7 +37993,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>79</v>
       </c>
@@ -37969,7 +38019,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>79</v>
       </c>
@@ -37995,7 +38045,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>79</v>
       </c>
@@ -38021,7 +38071,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>79</v>
       </c>
@@ -38050,7 +38100,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="591" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>79</v>
       </c>
@@ -38076,7 +38126,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>79</v>
       </c>
@@ -38102,7 +38152,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="593" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>79</v>
       </c>
@@ -38131,7 +38181,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="594" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>79</v>
       </c>
@@ -38157,7 +38207,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>79</v>
       </c>
@@ -38183,7 +38233,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="596" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>79</v>
       </c>
@@ -38209,7 +38259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="597" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>79</v>
       </c>
@@ -38235,7 +38285,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>79</v>
       </c>
@@ -38261,7 +38311,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="599" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>79</v>
       </c>
@@ -38287,7 +38337,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>79</v>
       </c>
@@ -38313,7 +38363,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>79</v>
       </c>
@@ -38339,7 +38389,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="602" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>79</v>
       </c>
@@ -38365,7 +38415,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="603" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>79</v>
       </c>
@@ -38391,7 +38441,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="604" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>79</v>
       </c>
@@ -38417,7 +38467,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="605" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>79</v>
       </c>
@@ -38443,7 +38493,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="606" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>79</v>
       </c>
@@ -38469,7 +38519,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="607" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>79</v>
       </c>
@@ -38495,7 +38545,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="608" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>79</v>
       </c>
@@ -38524,7 +38574,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>79</v>
       </c>
@@ -38550,7 +38600,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>79</v>
       </c>
@@ -38576,7 +38626,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>79</v>
       </c>
@@ -38602,7 +38652,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>79</v>
       </c>
@@ -38628,7 +38678,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>79</v>
       </c>
@@ -38654,7 +38704,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>79</v>
       </c>
@@ -38680,7 +38730,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>79</v>
       </c>
@@ -38706,7 +38756,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>79</v>
       </c>
@@ -38732,7 +38782,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>79</v>
       </c>
@@ -38758,7 +38808,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>79</v>
       </c>
@@ -38784,7 +38834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>79</v>
       </c>
@@ -38810,7 +38860,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>79</v>
       </c>
@@ -38836,7 +38886,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>79</v>
       </c>
@@ -38862,7 +38912,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>79</v>
       </c>
@@ -38888,7 +38938,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>79</v>
       </c>
@@ -38914,7 +38964,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>79</v>
       </c>
@@ -38940,7 +38990,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>79</v>
       </c>
@@ -38966,7 +39016,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>79</v>
       </c>
@@ -38992,7 +39042,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>79</v>
       </c>
@@ -39018,7 +39068,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>79</v>
       </c>
@@ -39044,7 +39094,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>79</v>
       </c>
@@ -39070,7 +39120,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>79</v>
       </c>
@@ -39096,7 +39146,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>79</v>
       </c>
@@ -39122,7 +39172,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>79</v>
       </c>
@@ -39148,7 +39198,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>79</v>
       </c>
@@ -39174,7 +39224,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="634" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>79</v>
       </c>
@@ -39200,7 +39250,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>79</v>
       </c>
@@ -39226,7 +39276,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>79</v>
       </c>
@@ -39252,7 +39302,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>79</v>
       </c>
@@ -39278,7 +39328,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>79</v>
       </c>
@@ -39304,7 +39354,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>79</v>
       </c>
@@ -39330,7 +39380,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="640" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>79</v>
       </c>
@@ -39356,7 +39406,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>79</v>
       </c>
@@ -39382,7 +39432,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>79</v>
       </c>
@@ -39408,7 +39458,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>79</v>
       </c>
@@ -39434,7 +39484,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="644" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>79</v>
       </c>
@@ -39460,7 +39510,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>79</v>
       </c>
@@ -39486,7 +39536,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>79</v>
       </c>
@@ -39512,7 +39562,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>79</v>
       </c>
@@ -39538,7 +39588,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>79</v>
       </c>
@@ -39564,7 +39614,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>79</v>
       </c>
@@ -39590,7 +39640,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>79</v>
       </c>
@@ -39616,7 +39666,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>79</v>
       </c>
@@ -39642,7 +39692,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>79</v>
       </c>
@@ -39668,7 +39718,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>79</v>
       </c>
@@ -39694,7 +39744,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>79</v>
       </c>
@@ -39720,7 +39770,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>79</v>
       </c>
@@ -39746,7 +39796,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>79</v>
       </c>
@@ -39772,7 +39822,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>79</v>
       </c>
@@ -39798,7 +39848,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="658" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>79</v>
       </c>
@@ -39824,7 +39874,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>79</v>
       </c>
@@ -39850,7 +39900,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>79</v>
       </c>
@@ -39876,7 +39926,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>79</v>
       </c>
@@ -39902,7 +39952,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>79</v>
       </c>
@@ -39928,7 +39978,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>79</v>
       </c>
@@ -39954,7 +40004,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>79</v>
       </c>
@@ -39980,7 +40030,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="665" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>79</v>
       </c>
@@ -40006,7 +40056,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="666" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>79</v>
       </c>
@@ -40032,7 +40082,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="667" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>79</v>
       </c>
@@ -40058,7 +40108,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="668" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>79</v>
       </c>
@@ -40084,7 +40134,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="669" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>79</v>
       </c>
@@ -40110,7 +40160,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="670" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>79</v>
       </c>
@@ -40136,7 +40186,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="671" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>79</v>
       </c>
@@ -40162,7 +40212,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="672" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>79</v>
       </c>
@@ -40188,7 +40238,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="673" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>79</v>
       </c>
@@ -40214,7 +40264,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="674" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>79</v>
       </c>
@@ -40240,7 +40290,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="675" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>79</v>
       </c>
@@ -40266,7 +40316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="676" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>79</v>
       </c>
@@ -40292,7 +40342,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="677" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>79</v>
       </c>
@@ -40318,7 +40368,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="678" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>79</v>
       </c>
@@ -40344,7 +40394,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="679" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>79</v>
       </c>
@@ -40370,7 +40420,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="680" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>79</v>
       </c>
@@ -40396,7 +40446,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="681" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>79</v>
       </c>
@@ -40422,7 +40472,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="682" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>79</v>
       </c>
@@ -40448,7 +40498,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="683" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>79</v>
       </c>
@@ -40477,7 +40527,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="684" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>79</v>
       </c>
@@ -40503,7 +40553,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="685" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>79</v>
       </c>
@@ -40529,7 +40579,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="686" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>79</v>
       </c>
@@ -40555,7 +40605,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="687" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>79</v>
       </c>
@@ -40581,7 +40631,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="688" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>79</v>
       </c>
@@ -40607,7 +40657,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>79</v>
       </c>
@@ -40633,7 +40683,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="690" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>79</v>
       </c>
@@ -40659,7 +40709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="691" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>79</v>
       </c>
@@ -40685,7 +40735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="692" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>79</v>
       </c>
@@ -40711,7 +40761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>79</v>
       </c>
@@ -40737,7 +40787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>79</v>
       </c>
@@ -40763,7 +40813,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="695" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>79</v>
       </c>
@@ -40789,7 +40839,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="696" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>79</v>
       </c>
@@ -40815,7 +40865,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>79</v>
       </c>
@@ -40841,7 +40891,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="698" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>79</v>
       </c>
@@ -40867,7 +40917,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="699" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>79</v>
       </c>
@@ -40893,7 +40943,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="700" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>79</v>
       </c>
@@ -40919,7 +40969,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>79</v>
       </c>
@@ -40945,7 +40995,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="702" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>79</v>
       </c>
@@ -40971,7 +41021,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="703" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>79</v>
       </c>
@@ -40997,7 +41047,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="704" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>79</v>
       </c>
@@ -41023,7 +41073,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>79</v>
       </c>
@@ -41049,7 +41099,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>79</v>
       </c>
@@ -41075,7 +41125,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>79</v>
       </c>
@@ -41101,7 +41151,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="708" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>79</v>
       </c>
@@ -41127,7 +41177,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="709" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>79</v>
       </c>
@@ -41153,7 +41203,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>79</v>
       </c>
@@ -41179,7 +41229,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>79</v>
       </c>
@@ -41205,7 +41255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="712" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>79</v>
       </c>
@@ -41231,7 +41281,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>79</v>
       </c>
@@ -41257,7 +41307,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="714" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>79</v>
       </c>
@@ -41283,7 +41333,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="715" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>79</v>
       </c>
@@ -41309,7 +41359,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>79</v>
       </c>
@@ -41335,7 +41385,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>79</v>
       </c>
@@ -41361,7 +41411,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="718" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>79</v>
       </c>
@@ -41387,7 +41437,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>79</v>
       </c>
@@ -41413,7 +41463,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>79</v>
       </c>
@@ -41439,7 +41489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="721" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>79</v>
       </c>
@@ -41465,7 +41515,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="722" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>79</v>
       </c>
@@ -41491,7 +41541,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="723" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>79</v>
       </c>
@@ -41517,7 +41567,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="724" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>79</v>
       </c>
@@ -41543,7 +41593,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="725" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>79</v>
       </c>
@@ -41569,7 +41619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="726" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>79</v>
       </c>
@@ -41595,7 +41645,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="727" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>79</v>
       </c>
@@ -41621,7 +41671,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="728" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>79</v>
       </c>
@@ -41647,7 +41697,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="729" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>79</v>
       </c>
@@ -41673,7 +41723,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="730" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>79</v>
       </c>
@@ -41699,7 +41749,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="731" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>79</v>
       </c>
@@ -41725,7 +41775,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="732" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>79</v>
       </c>
@@ -41751,7 +41801,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="733" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>79</v>
       </c>
@@ -41777,7 +41827,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="734" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>79</v>
       </c>
@@ -41803,7 +41853,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="735" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>79</v>
       </c>
@@ -41829,7 +41879,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="736" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>79</v>
       </c>
@@ -41855,7 +41905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="737" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>79</v>
       </c>
@@ -41881,7 +41931,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="738" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>79</v>
       </c>
@@ -41907,7 +41957,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="739" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>79</v>
       </c>
@@ -41933,7 +41983,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="740" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>79</v>
       </c>
@@ -41959,7 +42009,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="741" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>79</v>
       </c>
@@ -41985,7 +42035,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="742" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>79</v>
       </c>
@@ -42011,7 +42061,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="743" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>79</v>
       </c>
@@ -42037,7 +42087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="744" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>79</v>
       </c>
@@ -42063,7 +42113,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="745" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>79</v>
       </c>
@@ -42089,7 +42139,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="746" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>79</v>
       </c>
@@ -42115,7 +42165,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="747" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>79</v>
       </c>
@@ -42141,7 +42191,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="748" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>79</v>
       </c>
@@ -42167,7 +42217,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="749" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>79</v>
       </c>
@@ -42193,7 +42243,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="750" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>79</v>
       </c>
@@ -42219,7 +42269,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="751" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>79</v>
       </c>
@@ -42245,7 +42295,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="752" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>79</v>
       </c>
@@ -42271,7 +42321,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="753" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>79</v>
       </c>
@@ -42297,7 +42347,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="754" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>79</v>
       </c>
@@ -42323,7 +42373,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="755" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>79</v>
       </c>
@@ -42349,7 +42399,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="756" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>79</v>
       </c>
@@ -42375,7 +42425,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="757" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>79</v>
       </c>
@@ -42401,7 +42451,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="758" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>79</v>
       </c>
@@ -42427,7 +42477,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="759" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>79</v>
       </c>
@@ -42453,7 +42503,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="760" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>79</v>
       </c>
@@ -42479,7 +42529,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="761" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>79</v>
       </c>
@@ -42505,7 +42555,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="762" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>79</v>
       </c>
@@ -42531,7 +42581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="763" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>79</v>
       </c>
@@ -42557,7 +42607,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="764" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>79</v>
       </c>
@@ -42583,7 +42633,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="765" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>79</v>
       </c>
@@ -42609,7 +42659,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="766" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>204</v>
       </c>
@@ -42635,7 +42685,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="767" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>204</v>
       </c>
@@ -42661,7 +42711,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="768" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>204</v>
       </c>
@@ -42687,7 +42737,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="769" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>204</v>
       </c>
@@ -42713,7 +42763,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="770" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>204</v>
       </c>
@@ -42739,7 +42789,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="771" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>204</v>
       </c>
@@ -42765,7 +42815,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="772" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>204</v>
       </c>
@@ -42796,7 +42846,7 @@
         <v>298</v>
       </c>
       <c r="B773" s="1">
-        <v>44697</v>
+        <v>45062</v>
       </c>
       <c r="C773">
         <v>1</v>
@@ -42825,7 +42875,7 @@
         <v>298</v>
       </c>
       <c r="B774" s="1">
-        <v>44697</v>
+        <v>45062</v>
       </c>
       <c r="C774">
         <v>5</v>
@@ -42854,7 +42904,7 @@
         <v>298</v>
       </c>
       <c r="B775" s="1">
-        <v>44697</v>
+        <v>45062</v>
       </c>
       <c r="C775">
         <v>7</v>
@@ -42883,7 +42933,7 @@
         <v>298</v>
       </c>
       <c r="B776" s="1">
-        <v>44697</v>
+        <v>45062</v>
       </c>
       <c r="C776">
         <v>10</v>
@@ -42912,7 +42962,7 @@
         <v>298</v>
       </c>
       <c r="B777" s="1">
-        <v>44697</v>
+        <v>45062</v>
       </c>
       <c r="C777">
         <v>12</v>
@@ -42941,7 +42991,7 @@
         <v>298</v>
       </c>
       <c r="B778" s="1">
-        <v>44697</v>
+        <v>45062</v>
       </c>
       <c r="C778">
         <v>15</v>
@@ -42970,7 +43020,7 @@
         <v>298</v>
       </c>
       <c r="B779" s="1">
-        <v>44697</v>
+        <v>45062</v>
       </c>
       <c r="C779">
         <v>17</v>
@@ -42999,7 +43049,7 @@
         <v>298</v>
       </c>
       <c r="B780" s="1">
-        <v>44697</v>
+        <v>45062</v>
       </c>
       <c r="C780">
         <v>20</v>
@@ -43028,7 +43078,7 @@
         <v>298</v>
       </c>
       <c r="B781" s="1">
-        <v>44697</v>
+        <v>45062</v>
       </c>
       <c r="C781">
         <v>25</v>
@@ -43057,7 +43107,7 @@
         <v>298</v>
       </c>
       <c r="B782" s="1">
-        <v>44697</v>
+        <v>45062</v>
       </c>
       <c r="C782">
         <v>30</v>
@@ -43086,7 +43136,7 @@
         <v>298</v>
       </c>
       <c r="B783" s="1">
-        <v>44697</v>
+        <v>45062</v>
       </c>
       <c r="C783">
         <v>35</v>
@@ -43115,7 +43165,7 @@
         <v>298</v>
       </c>
       <c r="B784" s="1">
-        <v>44697</v>
+        <v>45062</v>
       </c>
       <c r="C784">
         <v>40</v>
@@ -43144,7 +43194,7 @@
         <v>298</v>
       </c>
       <c r="B785" s="1">
-        <v>44697</v>
+        <v>45062</v>
       </c>
       <c r="C785">
         <v>45</v>
@@ -43168,28 +43218,474 @@
         <v>39.299999999999997</v>
       </c>
     </row>
+    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A786" t="s">
+        <v>79</v>
+      </c>
+      <c r="B786" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C786">
+        <v>1</v>
+      </c>
+      <c r="D786" t="s">
+        <v>80</v>
+      </c>
+      <c r="E786">
+        <v>60.5</v>
+      </c>
+      <c r="F786" t="s">
+        <v>81</v>
+      </c>
+      <c r="G786">
+        <v>10.98</v>
+      </c>
+      <c r="H786" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A787" t="s">
+        <v>79</v>
+      </c>
+      <c r="B787" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C787">
+        <v>5</v>
+      </c>
+      <c r="D787" t="s">
+        <v>80</v>
+      </c>
+      <c r="E787">
+        <v>60.5</v>
+      </c>
+      <c r="F787" t="s">
+        <v>81</v>
+      </c>
+      <c r="G787">
+        <v>11.03</v>
+      </c>
+      <c r="H787" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A788" t="s">
+        <v>79</v>
+      </c>
+      <c r="B788" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C788">
+        <v>7</v>
+      </c>
+      <c r="D788" t="s">
+        <v>80</v>
+      </c>
+      <c r="E788">
+        <v>58.1</v>
+      </c>
+      <c r="F788" t="s">
+        <v>81</v>
+      </c>
+      <c r="G788">
+        <v>13.69</v>
+      </c>
+      <c r="H788" t="s">
+        <v>35</v>
+      </c>
+      <c r="I788">
+        <v>121.4</v>
+      </c>
+    </row>
+    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A789" t="s">
+        <v>79</v>
+      </c>
+      <c r="B789" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C789">
+        <v>10</v>
+      </c>
+      <c r="D789" t="s">
+        <v>80</v>
+      </c>
+      <c r="E789">
+        <v>50.3</v>
+      </c>
+      <c r="F789" t="s">
+        <v>81</v>
+      </c>
+      <c r="G789">
+        <v>13.73</v>
+      </c>
+      <c r="H789" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A790" t="s">
+        <v>79</v>
+      </c>
+      <c r="B790" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C790">
+        <v>12</v>
+      </c>
+      <c r="D790" t="s">
+        <v>80</v>
+      </c>
+      <c r="E790">
+        <v>47.1</v>
+      </c>
+      <c r="F790" t="s">
+        <v>81</v>
+      </c>
+      <c r="G790">
+        <v>13.69</v>
+      </c>
+      <c r="H790" t="s">
+        <v>35</v>
+      </c>
+      <c r="I790">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="791" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A791" t="s">
+        <v>79</v>
+      </c>
+      <c r="B791" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C791">
+        <v>15</v>
+      </c>
+      <c r="D791" t="s">
+        <v>80</v>
+      </c>
+      <c r="E791">
+        <v>45.7</v>
+      </c>
+      <c r="F791" t="s">
+        <v>81</v>
+      </c>
+      <c r="G791">
+        <v>8.85</v>
+      </c>
+      <c r="H791" t="s">
+        <v>35</v>
+      </c>
+      <c r="I791">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="792" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A792" t="s">
+        <v>79</v>
+      </c>
+      <c r="B792" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C792">
+        <v>17</v>
+      </c>
+      <c r="D792" t="s">
+        <v>80</v>
+      </c>
+      <c r="E792">
+        <v>44.3</v>
+      </c>
+      <c r="F792" t="s">
+        <v>81</v>
+      </c>
+      <c r="G792">
+        <v>7.38</v>
+      </c>
+      <c r="H792" t="s">
+        <v>35</v>
+      </c>
+      <c r="I792">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="793" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A793" t="s">
+        <v>79</v>
+      </c>
+      <c r="B793" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C793">
+        <v>20</v>
+      </c>
+      <c r="D793" t="s">
+        <v>80</v>
+      </c>
+      <c r="E793">
+        <v>43</v>
+      </c>
+      <c r="F793" t="s">
+        <v>81</v>
+      </c>
+      <c r="G793">
+        <v>4.99</v>
+      </c>
+      <c r="H793" t="s">
+        <v>35</v>
+      </c>
+      <c r="I793">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="794" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A794" t="s">
+        <v>79</v>
+      </c>
+      <c r="B794" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C794">
+        <v>22</v>
+      </c>
+      <c r="D794" t="s">
+        <v>80</v>
+      </c>
+      <c r="E794">
+        <v>42.6</v>
+      </c>
+      <c r="F794" t="s">
+        <v>81</v>
+      </c>
+      <c r="G794">
+        <v>4.28</v>
+      </c>
+      <c r="H794" t="s">
+        <v>35</v>
+      </c>
+      <c r="I794">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="795" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A795" t="s">
+        <v>79</v>
+      </c>
+      <c r="B795" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C795">
+        <v>25</v>
+      </c>
+      <c r="D795" t="s">
+        <v>80</v>
+      </c>
+      <c r="E795">
+        <v>42</v>
+      </c>
+      <c r="F795" t="s">
+        <v>81</v>
+      </c>
+      <c r="G795">
+        <v>3.67</v>
+      </c>
+      <c r="H795" t="s">
+        <v>35</v>
+      </c>
+      <c r="I795">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="796" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A796" t="s">
+        <v>79</v>
+      </c>
+      <c r="B796" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C796">
+        <v>27</v>
+      </c>
+      <c r="D796" t="s">
+        <v>80</v>
+      </c>
+      <c r="E796">
+        <v>41.9</v>
+      </c>
+      <c r="F796" t="s">
+        <v>81</v>
+      </c>
+      <c r="G796">
+        <v>3.59</v>
+      </c>
+      <c r="H796" t="s">
+        <v>35</v>
+      </c>
+      <c r="I796">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="797" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A797" t="s">
+        <v>79</v>
+      </c>
+      <c r="B797" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C797">
+        <v>30</v>
+      </c>
+      <c r="D797" t="s">
+        <v>80</v>
+      </c>
+      <c r="E797">
+        <v>41.8</v>
+      </c>
+      <c r="F797" t="s">
+        <v>81</v>
+      </c>
+      <c r="G797">
+        <v>3.41</v>
+      </c>
+      <c r="H797" t="s">
+        <v>35</v>
+      </c>
+      <c r="I797">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A798" t="s">
+        <v>79</v>
+      </c>
+      <c r="B798" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C798">
+        <v>32</v>
+      </c>
+      <c r="D798" t="s">
+        <v>80</v>
+      </c>
+      <c r="E798">
+        <v>41.7</v>
+      </c>
+      <c r="F798" t="s">
+        <v>81</v>
+      </c>
+      <c r="G798">
+        <v>3.3</v>
+      </c>
+      <c r="H798" t="s">
+        <v>35</v>
+      </c>
+      <c r="I798">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="799" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A799" t="s">
+        <v>79</v>
+      </c>
+      <c r="B799" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C799">
+        <v>35</v>
+      </c>
+      <c r="D799" t="s">
+        <v>80</v>
+      </c>
+      <c r="E799">
+        <v>41.6</v>
+      </c>
+      <c r="F799" t="s">
+        <v>81</v>
+      </c>
+      <c r="G799">
+        <v>3.16</v>
+      </c>
+      <c r="H799" t="s">
+        <v>35</v>
+      </c>
+      <c r="I799">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="800" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A800" t="s">
+        <v>79</v>
+      </c>
+      <c r="B800" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C800">
+        <v>40</v>
+      </c>
+      <c r="D800" t="s">
+        <v>80</v>
+      </c>
+      <c r="E800">
+        <v>41.5</v>
+      </c>
+      <c r="F800" t="s">
+        <v>81</v>
+      </c>
+      <c r="G800">
+        <v>3.11</v>
+      </c>
+      <c r="H800" t="s">
+        <v>35</v>
+      </c>
+      <c r="I800">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="801" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A801" t="s">
+        <v>79</v>
+      </c>
+      <c r="B801" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C801">
+        <v>45</v>
+      </c>
+      <c r="D801" t="s">
+        <v>80</v>
+      </c>
+      <c r="E801">
+        <v>41.4</v>
+      </c>
+      <c r="F801" t="s">
+        <v>81</v>
+      </c>
+      <c r="G801">
+        <v>3.1</v>
+      </c>
+      <c r="H801" t="s">
+        <v>35</v>
+      </c>
+      <c r="I801">
+        <v>25.4</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I772">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Twin Bear Lake"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A10:I765">
-      <sortCondition ref="B1:B772"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:I772"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C420"/>
+  <dimension ref="A1:C421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C420" sqref="C420"/>
+      <selection pane="bottomLeft" activeCell="B421" sqref="B421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47783,6 +48279,17 @@
         <v>478</v>
       </c>
     </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>79</v>
+      </c>
+      <c r="B421" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C421" t="s">
+        <v>482</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47790,11 +48297,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D633"/>
+  <dimension ref="A1:D634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A633" sqref="A633"/>
+      <selection pane="bottomLeft" activeCell="B630" sqref="B630"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56664,6 +57171,20 @@
         <v>479</v>
       </c>
     </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
+        <v>79</v>
+      </c>
+      <c r="B634" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C634" t="s">
+        <v>197</v>
+      </c>
+      <c r="D634" t="s">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
